--- a/aaanalysis/_data/features/FEATURES_DOM_GSEC.xlsx
+++ b/aaanalysis/_data/features/FEATURES_DOM_GSEC.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">α-helix termination</t>
   </si>
   <si>
-    <t xml:space="preserve">Helix termination parameter at posision j+1 (Finkelstein et al., 1991)</t>
+    <t xml:space="preserve">Helix termination parameter at position j+1 (Finkelstein et al., 1991)</t>
   </si>
   <si>
     <t xml:space="preserve">TMD_C_JMD_C-Segment(6,9)-LEVM760105</t>
@@ -1045,7 +1045,7 @@
     <t xml:space="preserve">Eccentricity (average)</t>
   </si>
   <si>
-    <t xml:space="preserve">Average weighted eccentricity based on the the atomic number (Karkbara-Knisley, 2016)</t>
+    <t xml:space="preserve">Average weighted eccentricity based on the atomic number (Kakraba-Knisley, 2016)</t>
   </si>
   <si>
     <t xml:space="preserve">16,17</t>
@@ -1271,13 +1271,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1299,11 +1303,18 @@
   </sheetPr>
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="95.22"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1353,7052 +1364,7052 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.244</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="2" t="n">
         <v>0.103666</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.103666</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="2" t="n">
         <v>0.106692</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="2" t="n">
         <v>0.110506</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="2" t="n">
         <v>0.9704</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="2" t="n">
         <v>1.43891759319288</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.243</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.085064</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.085064</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="2" t="n">
         <v>0.098774</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="2" t="n">
         <v>0.096946</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="2" t="n">
         <v>1E-010</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="2" t="n">
         <v>2.19433333333333E-007</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.233</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.137044</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.137044</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
         <v>0.161683</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="2" t="n">
         <v>0.176964</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="2" t="n">
         <v>1.1E-009</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="2" t="n">
         <v>9.051625E-007</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="2" t="n">
         <v>1.5548</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="2" t="n">
         <v>2.10984761535045</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.229</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.098224</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.098224</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="2" t="n">
         <v>0.106865</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="2" t="n">
         <v>0.124608</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="2" t="n">
         <v>1.8E-009</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <v>9.8745E-007</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="2" t="n">
         <v>3.1112</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="2" t="n">
         <v>3.10995475208242</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.223</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.095071</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.095071</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
         <v>0.114758</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="2" t="n">
         <v>0.132829</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="2" t="n">
         <v>5.1E-009</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <v>1.76701578947368E-006</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.222</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.058671</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.058671</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="2" t="n">
         <v>0.064895</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="2" t="n">
         <v>0.069547</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="2" t="n">
         <v>1.1E-009</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <v>9.051625E-007</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.215</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.146661</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.146661</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="2" t="n">
         <v>0.174609</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="2" t="n">
         <v>0.188034</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="2" t="n">
         <v>1.39E-008</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="2" t="n">
         <v>3.660148E-006</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="2" t="n">
         <v>1.0324</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="2" t="n">
         <v>1.51072242321348</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.215</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.124317</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.124317</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <v>0.166309</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="2" t="n">
         <v>0.153364</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="2" t="n">
         <v>1.66E-008</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <v>4.04732592592593E-006</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="2" t="n">
         <v>1.0804</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="2" t="n">
         <v>1.29609407066</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <v>0.212</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <v>0.141305</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <v>-0.141305</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <v>0.168603</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="2" t="n">
         <v>0.217235</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="2" t="n">
         <v>2.61E-008</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <v>5.20655454545455E-006</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="2" t="n">
         <v>1.7472</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="2" t="n">
         <v>2.15066412068458</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <v>0.211</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <v>0.12535</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="2" t="n">
         <v>0.12535</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <v>0.160819</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="2" t="n">
         <v>0.174121</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="2" t="n">
         <v>3.13E-008</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <v>5.2828575E-006</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="2" t="n">
         <v>1.7888</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="2" t="n">
         <v>2.70080331753351</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="2" t="n">
         <v>0.211</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="2" t="n">
         <v>0.077355</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="2" t="n">
         <v>0.077355</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
         <v>0.102965</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="2" t="n">
         <v>0.107453</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="2" t="n">
         <v>3.12E-008</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <v>5.2828575E-006</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="2" t="n">
         <v>3.0488</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="2" t="n">
         <v>3.62391205191296</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="2" t="n">
         <v>0.206</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="2" t="n">
         <v>0.111462</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="2" t="n">
         <v>-0.111462</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
         <v>0.159718</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="2" t="n">
         <v>0.144989</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="2" t="n">
         <v>6.68E-008</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <v>8.794888E-006</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="2" t="n">
         <v>0.205</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="2" t="n">
         <v>0.125868</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="2" t="n">
         <v>-0.125868</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
         <v>0.172165</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="2" t="n">
         <v>0.188333</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="2" t="n">
         <v>7.73E-008</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <v>9.39472203389831E-006</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="2" t="n">
         <v>0.204</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="2" t="n">
         <v>0.105513</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="2" t="n">
         <v>0.105513</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="2" t="n">
         <v>0.132849</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="2" t="n">
         <v>0.145219</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="2" t="n">
         <v>8.29E-008</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="2" t="n">
         <v>9.39472203389831E-006</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="2" t="n">
         <v>1.992</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="2" t="n">
         <v>2.9294600185017</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="2" t="n">
         <v>0.132693</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="2" t="n">
         <v>-0.132693</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="2" t="n">
         <v>0.184359</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="2" t="n">
         <v>0.209008</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="2" t="n">
         <v>1.546E-007</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="2" t="n">
         <v>1.47497362318841E-005</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="2" t="n">
         <v>0.199</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="2" t="n">
         <v>0.073023</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="2" t="n">
         <v>-0.073023</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="2" t="n">
         <v>0.087336</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="2" t="n">
         <v>0.10775</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="2" t="n">
         <v>1.873E-007</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="2" t="n">
         <v>1.68903547945206E-005</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="2" t="n">
         <v>0.616</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="2" t="n">
         <v>0.847660309322077</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="2" t="n">
         <v>0.199</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="2" t="n">
         <v>0.065983</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="2" t="n">
         <v>-0.065983</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="2" t="n">
         <v>0.087814</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="2" t="n">
         <v>0.105835</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="2" t="n">
         <v>1.717E-007</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="2" t="n">
         <v>1.59197338028169E-005</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="2" t="n">
         <v>4.106</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="2" t="n">
         <v>5.23657445282696</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="2" t="n">
         <v>0.198</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="2" t="n">
         <v>0.138293</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="2" t="n">
         <v>0.138293</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="2" t="n">
         <v>0.172194</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="2" t="n">
         <v>0.198814</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="2" t="n">
         <v>1.997E-007</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="2" t="n">
         <v>1.73380831168831E-005</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="2" t="n">
         <v>0.8324</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="2" t="n">
         <v>1.38371754343146</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="2" t="n">
         <v>0.197</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="2" t="n">
         <v>0.060758</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="2" t="n">
         <v>0.060758</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="2" t="n">
         <v>0.050818</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="2" t="n">
         <v>0.095267</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="2" t="n">
         <v>2.307E-007</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="2" t="n">
         <v>1.898372625E-005</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="2" t="n">
         <v>1.6588</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20" s="2" t="n">
         <v>3.42177418308105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="2" t="n">
         <v>0.196</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="2" t="n">
         <v>0.062671</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="2" t="n">
         <v>0.062671</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="2" t="n">
         <v>0.083456</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="2" t="n">
         <v>0.090427</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="2" t="n">
         <v>2.875E-007</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="2" t="n">
         <v>2.28025602409638E-005</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="2" t="n">
         <v>1.5744</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="2" t="n">
         <v>1.83540312738101</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="2" t="n">
         <v>0.195</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="2" t="n">
         <v>0.060096</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="2" t="n">
         <v>0.060096</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="2" t="n">
         <v>0.050818</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="2" t="n">
         <v>0.095039</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="2" t="n">
         <v>2.96E-007</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="2" t="n">
         <v>2.31972380952381E-005</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="2" t="n">
         <v>0.193</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="2" t="n">
         <v>0.07677</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="2" t="n">
         <v>0.07677</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="2" t="n">
         <v>0.092804</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="2" t="n">
         <v>0.11415</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="2" t="n">
         <v>3.895E-007</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="2" t="n">
         <v>2.72774308510638E-005</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="2" t="n">
         <v>0.192</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="2" t="n">
         <v>0.125521</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="2" t="n">
         <v>0.125521</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="2" t="n">
         <v>0.188795</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="2" t="n">
         <v>0.177163</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="2" t="n">
         <v>3.988E-007</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="2" t="n">
         <v>2.73468791666667E-005</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="2" t="n">
         <v>0.189</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="2" t="n">
         <v>0.125674</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="2" t="n">
         <v>0.125674</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="2" t="n">
         <v>0.183876</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="2" t="n">
         <v>0.218813</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="2" t="n">
         <v>6.912E-007</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="2" t="n">
         <v>3.93391E-005</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="2" t="n">
         <v>4.7292</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="2" t="n">
         <v>4.77678546304939</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="2" t="n">
         <v>0.189</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="2" t="n">
         <v>0.093759</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="2" t="n">
         <v>0.093759</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="2" t="n">
         <v>0.136715</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="2" t="n">
         <v>0.13732</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="2" t="n">
         <v>6.932E-007</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="2" t="n">
         <v>3.93391E-005</v>
       </c>
-      <c r="M26" s="0" t="s">
+      <c r="M26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="2" t="n">
         <v>0.187</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="2" t="n">
         <v>0.144354</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="2" t="n">
         <v>-0.144354</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="2" t="n">
         <v>0.181777</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="2" t="n">
         <v>0.233103</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="2" t="n">
         <v>9.487E-007</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="2" t="n">
         <v>4.93310322834646E-005</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="M27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27" s="2" t="n">
         <v>2.8336</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27" s="2" t="n">
         <v>3.64061739818949</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="2" t="n">
         <v>0.185</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="2" t="n">
         <v>0.105474</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="2" t="n">
         <v>-0.105474</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="2" t="n">
         <v>0.157535</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="2" t="n">
         <v>0.163039</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="2" t="n">
         <v>1.2886E-006</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="2" t="n">
         <v>5.93206559440559E-005</v>
       </c>
-      <c r="M28" s="0" t="s">
+      <c r="M28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="2" t="n">
         <v>0.185</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="2" t="n">
         <v>0.101798</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="2" t="n">
         <v>0.101798</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="2" t="n">
         <v>0.145676</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="2" t="n">
         <v>0.155096</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="2" t="n">
         <v>1.1162E-006</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="2" t="n">
         <v>5.36346321167883E-005</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="2" t="n">
         <v>0.184</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="2" t="n">
         <v>0.112728</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="2" t="n">
         <v>-0.112728</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="2" t="n">
         <v>0.166431</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="2" t="n">
         <v>0.1838</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="2" t="n">
         <v>1.3451E-006</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="2" t="n">
         <v>6.0737070945946E-005</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="M30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30" s="2" t="n">
         <v>0.8576</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30" s="2" t="n">
         <v>1.33955001399724</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="2" t="n">
         <v>0.184</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="2" t="n">
         <v>0.062096</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="2" t="n">
         <v>0.062096</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="2" t="n">
         <v>0.078809</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="2" t="n">
         <v>0.091271</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="2" t="n">
         <v>2.028E-007</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="2" t="n">
         <v>1.73380831168831E-005</v>
       </c>
-      <c r="M31" s="0" t="s">
+      <c r="M31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31" s="2" t="n">
         <v>0.1472</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31" s="2" t="n">
         <v>0.345305893375714</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="2" t="n">
         <v>0.183</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="2" t="n">
         <v>0.063902</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="2" t="n">
         <v>-0.063902</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="2" t="n">
         <v>0.090842</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="2" t="n">
         <v>0.101427</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="2" t="n">
         <v>1.6199E-006</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32" s="2" t="n">
         <v>6.79223038216561E-005</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="N32" s="2" t="n">
         <v>0.8232</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="O32" s="2" t="n">
         <v>1.40458312676751</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="2" t="n">
         <v>0.182</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="2" t="n">
         <v>0.121315</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="2" t="n">
         <v>0.121315</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="2" t="n">
         <v>0.147184</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="2" t="n">
         <v>0.184212</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="2" t="n">
         <v>1.7192E-006</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33" s="2" t="n">
         <v>6.99748518518519E-005</v>
       </c>
-      <c r="M33" s="0" t="s">
+      <c r="M33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="N33" s="2" t="n">
         <v>0.8652</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="O33" s="2" t="n">
         <v>1.55337856300388</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="2" t="n">
         <v>0.182</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="2" t="n">
         <v>0.098529</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="2" t="n">
         <v>-0.098529</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="2" t="n">
         <v>0.141641</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="2" t="n">
         <v>0.162412</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="2" t="n">
         <v>1.807E-006</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34" s="2" t="n">
         <v>7.15930814371258E-005</v>
       </c>
-      <c r="M34" s="0" t="s">
+      <c r="M34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="N34" s="2" t="n">
         <v>0.2212</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="O34" s="2" t="n">
         <v>0.51924036823036</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="2" t="n">
         <v>0.182</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="2" t="n">
         <v>0.096246</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="2" t="n">
         <v>0.096246</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="2" t="n">
         <v>0.160859</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="2" t="n">
         <v>0.159538</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="2" t="n">
         <v>1.7044E-006</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35" s="2" t="n">
         <v>6.99748518518519E-005</v>
       </c>
-      <c r="M35" s="0" t="s">
+      <c r="M35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="N35" s="2" t="n">
         <v>0.5084</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="O35" s="2" t="n">
         <v>0.738667340553242</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="2" t="n">
         <v>0.182</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="2" t="n">
         <v>0.066394</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="2" t="n">
         <v>-0.066394</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="2" t="n">
         <v>0.097857</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="2" t="n">
         <v>0.103426</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="2" t="n">
         <v>1.722E-006</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36" s="2" t="n">
         <v>6.99748518518519E-005</v>
       </c>
-      <c r="M36" s="0" t="s">
+      <c r="M36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="N36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="O36" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="2" t="n">
         <v>0.182</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="2" t="n">
         <v>0.063819</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="2" t="n">
         <v>0.063819</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="2" t="n">
         <v>0.101691</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="2" t="n">
         <v>0.105987</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="2" t="n">
         <v>1.7753E-006</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="L37" s="2" t="n">
         <v>7.09447915151515E-005</v>
       </c>
-      <c r="M37" s="0" t="s">
+      <c r="M37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N37" s="0" t="n">
+      <c r="N37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O37" s="0" t="n">
+      <c r="O37" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="2" t="n">
         <v>0.181</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="2" t="n">
         <v>0.118349</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="2" t="n">
         <v>-0.118349</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="2" t="n">
         <v>0.169282</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="2" t="n">
         <v>0.185522</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="2" t="n">
         <v>2.0612E-006</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38" s="2" t="n">
         <v>7.79820666666667E-005</v>
       </c>
-      <c r="M38" s="0" t="s">
+      <c r="M38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="N38" s="2" t="n">
         <v>1.2264</v>
       </c>
-      <c r="O38" s="0" t="n">
+      <c r="O38" s="2" t="n">
         <v>1.51098611509173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="2" t="n">
         <v>0.181</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="2" t="n">
         <v>0.057287</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="2" t="n">
         <v>-0.057287</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="2" t="n">
         <v>0.072234</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="2" t="n">
         <v>0.106512</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="2" t="n">
         <v>1.9427E-006</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="L39" s="2" t="n">
         <v>7.56733378698225E-005</v>
       </c>
-      <c r="M39" s="0" t="s">
+      <c r="M39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N39" s="0" t="n">
+      <c r="N39" s="2" t="n">
         <v>1.9196</v>
       </c>
-      <c r="O39" s="0" t="n">
+      <c r="O39" s="2" t="n">
         <v>2.09449656003537</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="2" t="n">
         <v>0.096784</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="2" t="n">
         <v>-0.096784</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="2" t="n">
         <v>0.15126</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="2" t="n">
         <v>0.170153</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40" s="2" t="n">
         <v>2.3896E-006</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="L40" s="2" t="n">
         <v>8.36741319148936E-005</v>
       </c>
-      <c r="M40" s="0" t="s">
+      <c r="M40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N40" s="0" t="n">
+      <c r="N40" s="2" t="n">
         <v>0.3568</v>
       </c>
-      <c r="O40" s="0" t="n">
+      <c r="O40" s="2" t="n">
         <v>0.617224238020511</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="2" t="n">
         <v>0.069277</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="2" t="n">
         <v>-0.069277</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41" s="2" t="n">
         <v>0.094949</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="2" t="n">
         <v>0.119524</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41" s="2" t="n">
         <v>2.3025E-006</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="L41" s="2" t="n">
         <v>8.19316621621622E-005</v>
       </c>
-      <c r="M41" s="0" t="s">
+      <c r="M41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N41" s="0" t="n">
+      <c r="N41" s="2" t="n">
         <v>1.818</v>
       </c>
-      <c r="O41" s="0" t="n">
+      <c r="O41" s="2" t="n">
         <v>2.3082928756984</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="2" t="n">
         <v>0.067391</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="2" t="n">
         <v>0.067391</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="2" t="n">
         <v>0.098544</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="2" t="n">
         <v>0.113033</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="2" t="n">
         <v>2.1674E-006</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="L42" s="2" t="n">
         <v>7.95684347826087E-005</v>
       </c>
-      <c r="M42" s="0" t="s">
+      <c r="M42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N42" s="0" t="n">
+      <c r="N42" s="2" t="n">
         <v>0.6352</v>
       </c>
-      <c r="O42" s="0" t="n">
+      <c r="O42" s="2" t="n">
         <v>1.20547457874482</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="2" t="n">
         <v>0.179</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="2" t="n">
         <v>0.115042</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="2" t="n">
         <v>-0.115042</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="2" t="n">
         <v>0.151938</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="2" t="n">
         <v>0.189623</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="2" t="n">
         <v>1.6073E-006</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="L43" s="2" t="n">
         <v>6.79223038216561E-005</v>
       </c>
-      <c r="M43" s="0" t="s">
+      <c r="M43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N43" s="0" t="n">
+      <c r="N43" s="2" t="n">
         <v>0.6484</v>
       </c>
-      <c r="O43" s="0" t="n">
+      <c r="O43" s="2" t="n">
         <v>1.06114157396645</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="2" t="n">
         <v>0.179</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="2" t="n">
         <v>0.069852</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="2" t="n">
         <v>0.069852</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="2" t="n">
         <v>0.103576</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="2" t="n">
         <v>0.116589</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="2" t="n">
         <v>2.8505E-006</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44" s="2" t="n">
         <v>9.33574203980099E-005</v>
       </c>
-      <c r="M44" s="0" t="s">
+      <c r="M44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="N44" s="2" t="n">
         <v>0.3852</v>
       </c>
-      <c r="O44" s="0" t="n">
+      <c r="O44" s="2" t="n">
         <v>0.555964890977839</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="2" t="n">
         <v>0.176</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="2" t="n">
         <v>0.120892</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="2" t="n">
         <v>0.120892</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="2" t="n">
         <v>0.198986</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="2" t="n">
         <v>0.21603</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="2" t="n">
         <v>3.7411E-006</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="L45" s="2" t="n">
         <v>0.00011292707173913</v>
       </c>
-      <c r="M45" s="0" t="s">
+      <c r="M45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="0" t="n">
+      <c r="N45" s="2" t="n">
         <v>0.7148</v>
       </c>
-      <c r="O45" s="0" t="n">
+      <c r="O45" s="2" t="n">
         <v>1.11814889885024</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="2" t="n">
         <v>0.176</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="2" t="n">
         <v>0.087846</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="2" t="n">
         <v>0.087846</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="2" t="n">
         <v>0.140464</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="2" t="n">
         <v>0.157561</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="2" t="n">
         <v>3.8894E-006</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="L46" s="2" t="n">
         <v>0.00011292707173913</v>
       </c>
-      <c r="M46" s="0" t="s">
+      <c r="M46" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="N46" s="2" t="n">
         <v>2.704</v>
       </c>
-      <c r="O46" s="0" t="n">
+      <c r="O46" s="2" t="n">
         <v>4.07626888220098</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="2" t="n">
         <v>0.176</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="2" t="n">
         <v>0.064253</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="2" t="n">
         <v>-0.064253</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47" s="2" t="n">
         <v>0.092619</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="2" t="n">
         <v>0.113588</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47" s="2" t="n">
         <v>3.6995E-006</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="L47" s="2" t="n">
         <v>0.000112749113425926</v>
       </c>
-      <c r="M47" s="0" t="s">
+      <c r="M47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N47" s="0" t="n">
+      <c r="N47" s="2" t="n">
         <v>0.8264</v>
       </c>
-      <c r="O47" s="0" t="n">
+      <c r="O47" s="2" t="n">
         <v>1.30342588588688</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="2" t="n">
         <v>0.176</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="2" t="n">
         <v>0.056675</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="2" t="n">
         <v>-0.056675</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="2" t="n">
         <v>0.099355</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="2" t="n">
         <v>0.114698</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48" s="2" t="n">
         <v>3.9455E-006</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="L48" s="2" t="n">
         <v>0.00011292707173913</v>
       </c>
-      <c r="M48" s="0" t="s">
+      <c r="M48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N48" s="0" t="n">
+      <c r="N48" s="2" t="n">
         <v>0.372</v>
       </c>
-      <c r="O48" s="0" t="n">
+      <c r="O48" s="2" t="n">
         <v>0.882269800004511</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="2" t="n">
         <v>0.175</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="2" t="n">
         <v>0.07802</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="2" t="n">
         <v>0.07802</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49" s="2" t="n">
         <v>0.113536</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J49" s="2" t="n">
         <v>0.125285</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49" s="2" t="n">
         <v>4.6933E-006</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="L49" s="2" t="n">
         <v>0.000129144745416667</v>
       </c>
-      <c r="M49" s="0" t="s">
+      <c r="M49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N49" s="0" t="n">
+      <c r="N49" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O49" s="0" t="n">
+      <c r="O49" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="2" t="n">
         <v>0.175</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50" s="2" t="n">
         <v>0.055597</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="2" t="n">
         <v>-0.055597</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50" s="2" t="n">
         <v>0.0891</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50" s="2" t="n">
         <v>0.105827</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50" s="2" t="n">
         <v>4.5091E-006</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="L50" s="2" t="n">
         <v>0.000126312362978723</v>
       </c>
-      <c r="M50" s="0" t="s">
+      <c r="M50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N50" s="0" t="n">
+      <c r="N50" s="2" t="n">
         <v>0.664</v>
       </c>
-      <c r="O50" s="0" t="n">
+      <c r="O50" s="2" t="n">
         <v>1.08953568092101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="2" t="n">
         <v>0.174</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51" s="2" t="n">
         <v>0.123237</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="2" t="n">
         <v>-0.123237</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I51" s="2" t="n">
         <v>0.192743</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51" s="2" t="n">
         <v>0.197652</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51" s="2" t="n">
         <v>4.983E-006</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="L51" s="2" t="n">
         <v>0.000133890159183673</v>
       </c>
-      <c r="M51" s="0" t="s">
+      <c r="M51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N51" s="0" t="n">
+      <c r="N51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O51" s="0" t="n">
+      <c r="O51" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="2" t="n">
         <v>0.174</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52" s="2" t="n">
         <v>0.067216</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="2" t="n">
         <v>0.067216</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52" s="2" t="n">
         <v>0.105047</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="2" t="n">
         <v>0.116197</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52" s="2" t="n">
         <v>4.9002E-006</v>
       </c>
-      <c r="L52" s="0" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.000133297589256198</v>
       </c>
-      <c r="M52" s="0" t="s">
+      <c r="M52" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N52" s="0" t="n">
+      <c r="N52" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O52" s="0" t="n">
+      <c r="O52" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="2" t="n">
         <v>0.173</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53" s="2" t="n">
         <v>0.056328</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53" s="2" t="n">
         <v>0.056328</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53" s="2" t="n">
         <v>0.067428</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="2" t="n">
         <v>0.094795</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="2" t="n">
         <v>5.8159E-006</v>
       </c>
-      <c r="L53" s="0" t="n">
+      <c r="L53" s="2" t="n">
         <v>0.000146689922222222</v>
       </c>
-      <c r="M53" s="0" t="s">
+      <c r="M53" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N53" s="0" t="n">
+      <c r="N53" s="2" t="n">
         <v>0.4832</v>
       </c>
-      <c r="O53" s="0" t="n">
+      <c r="O53" s="2" t="n">
         <v>0.913370549120126</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="2" t="n">
         <v>0.172</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54" s="2" t="n">
         <v>0.08747</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54" s="2" t="n">
         <v>-0.08747</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="I54" s="2" t="n">
         <v>0.135114</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54" s="2" t="n">
         <v>0.144731</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54" s="2" t="n">
         <v>5.2004E-006</v>
       </c>
-      <c r="L54" s="0" t="n">
+      <c r="L54" s="2" t="n">
         <v>0.0001369369328</v>
       </c>
-      <c r="M54" s="0" t="s">
+      <c r="M54" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="N54" s="0" t="n">
+      <c r="N54" s="2" t="n">
         <v>0.444</v>
       </c>
-      <c r="O54" s="0" t="n">
+      <c r="O54" s="2" t="n">
         <v>0.721620398824756</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="2" t="n">
         <v>0.172</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55" s="2" t="n">
         <v>0.056268</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55" s="2" t="n">
         <v>-0.056268</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="I55" s="2" t="n">
         <v>0.074692</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="J55" s="2" t="n">
         <v>0.093571</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="K55" s="2" t="n">
         <v>6.1288E-006</v>
       </c>
-      <c r="L55" s="0" t="n">
+      <c r="L55" s="2" t="n">
         <v>0.000151357223595506</v>
       </c>
-      <c r="M55" s="0" t="s">
+      <c r="M55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="0" t="n">
+      <c r="N55" s="2" t="n">
         <v>0.3036</v>
       </c>
-      <c r="O55" s="0" t="n">
+      <c r="O55" s="2" t="n">
         <v>0.618241894407035</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="2" t="n">
         <v>0.171</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56" s="2" t="n">
         <v>0.074769</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56" s="2" t="n">
         <v>-0.074769</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56" s="2" t="n">
         <v>0.122674</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56" s="2" t="n">
         <v>0.130394</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56" s="2" t="n">
         <v>6.9912E-006</v>
       </c>
-      <c r="L56" s="0" t="n">
+      <c r="L56" s="2" t="n">
         <v>0.000163783165836299</v>
       </c>
-      <c r="M56" s="0" t="s">
+      <c r="M56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N56" s="0" t="n">
+      <c r="N56" s="2" t="n">
         <v>0.7572</v>
       </c>
-      <c r="O56" s="0" t="n">
+      <c r="O56" s="2" t="n">
         <v>0.88432356069484</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57" s="2" t="n">
         <v>0.057307</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57" s="2" t="n">
         <v>0.057307</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="I57" s="2" t="n">
         <v>0.087801</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="J57" s="2" t="n">
         <v>0.097929</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57" s="2" t="n">
         <v>7.8011E-006</v>
       </c>
-      <c r="L57" s="0" t="n">
+      <c r="L57" s="2" t="n">
         <v>0.00017527181331058</v>
       </c>
-      <c r="M57" s="0" t="s">
+      <c r="M57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N57" s="0" t="n">
+      <c r="N57" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O57" s="0" t="n">
+      <c r="O57" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="2" t="n">
         <v>0.169</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58" s="2" t="n">
         <v>0.054819</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58" s="2" t="n">
         <v>-0.054819</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="I58" s="2" t="n">
         <v>0.095746</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="J58" s="2" t="n">
         <v>0.100423</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58" s="2" t="n">
         <v>9.7895E-006</v>
       </c>
-      <c r="L58" s="0" t="n">
+      <c r="L58" s="2" t="n">
         <v>0.0002013883703125</v>
       </c>
-      <c r="M58" s="0" t="s">
+      <c r="M58" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N58" s="0" t="n">
+      <c r="N58" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O58" s="0" t="n">
+      <c r="O58" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="2" t="n">
         <v>0.168</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59" s="2" t="n">
         <v>0.10644</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="H59" s="2" t="n">
         <v>-0.10644</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="I59" s="2" t="n">
         <v>0.168586</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="J59" s="2" t="n">
         <v>0.175701</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59" s="2" t="n">
         <v>1.10887E-005</v>
       </c>
-      <c r="L59" s="0" t="n">
+      <c r="L59" s="2" t="n">
         <v>0.00021596719556213</v>
       </c>
-      <c r="M59" s="0" t="s">
+      <c r="M59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N59" s="0" t="n">
+      <c r="N59" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O59" s="0" t="n">
+      <c r="O59" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="2" t="n">
         <v>0.168</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60" s="2" t="n">
         <v>0.086323</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60" s="2" t="n">
         <v>0.086323</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="I60" s="2" t="n">
         <v>0.121405</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60" s="2" t="n">
         <v>0.138577</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="2" t="n">
         <v>4.536E-007</v>
       </c>
-      <c r="L60" s="0" t="n">
+      <c r="L60" s="2" t="n">
         <v>2.95648396039604E-005</v>
       </c>
-      <c r="M60" s="0" t="s">
+      <c r="M60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N60" s="0" t="n">
+      <c r="N60" s="2" t="n">
         <v>0.1404</v>
       </c>
-      <c r="O60" s="0" t="n">
+      <c r="O60" s="2" t="n">
         <v>0.391228628809293</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="2" t="n">
         <v>0.168</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61" s="2" t="n">
         <v>0.07177</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="H61" s="2" t="n">
         <v>-0.07177</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="I61" s="2" t="n">
         <v>0.116934</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="J61" s="2" t="n">
         <v>0.123667</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="K61" s="2" t="n">
         <v>1.1141E-005</v>
       </c>
-      <c r="L61" s="0" t="n">
+      <c r="L61" s="2" t="n">
         <v>0.000216345731563422</v>
       </c>
-      <c r="M61" s="0" t="s">
+      <c r="M61" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N61" s="0" t="n">
+      <c r="N61" s="2" t="n">
         <v>0.6164</v>
       </c>
-      <c r="O61" s="0" t="n">
+      <c r="O61" s="2" t="n">
         <v>1.1241952855265</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="2" t="n">
         <v>0.168</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62" s="2" t="n">
         <v>0.067627</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62" s="2" t="n">
         <v>0.067627</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="I62" s="2" t="n">
         <v>0.098469</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62" s="2" t="n">
         <v>0.110321</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62" s="2" t="n">
         <v>1.07946E-005</v>
       </c>
-      <c r="L62" s="0" t="n">
+      <c r="L62" s="2" t="n">
         <v>0.000214685352870091</v>
       </c>
-      <c r="M62" s="0" t="s">
+      <c r="M62" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N62" s="0" t="n">
+      <c r="N62" s="2" t="n">
         <v>1.1052</v>
       </c>
-      <c r="O62" s="0" t="n">
+      <c r="O62" s="2" t="n">
         <v>1.42560056116712</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="2" t="n">
         <v>0.167</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63" s="2" t="n">
         <v>0.080568</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63" s="2" t="n">
         <v>0.080568</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="I63" s="2" t="n">
         <v>0.128898</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="J63" s="2" t="n">
         <v>0.128726</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63" s="2" t="n">
         <v>1.1378E-005</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="L63" s="2" t="n">
         <v>0.000218371352769679</v>
       </c>
-      <c r="M63" s="0" t="s">
+      <c r="M63" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N63" s="0" t="n">
+      <c r="N63" s="2" t="n">
         <v>1.2992</v>
       </c>
-      <c r="O63" s="0" t="n">
+      <c r="O63" s="2" t="n">
         <v>2.15953498698215</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="2" t="n">
         <v>0.167</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64" s="2" t="n">
         <v>0.077343</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64" s="2" t="n">
         <v>0.077343</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="I64" s="2" t="n">
         <v>0.13534</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="J64" s="2" t="n">
         <v>0.134263</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="K64" s="2" t="n">
         <v>1.20974E-005</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="L64" s="2" t="n">
         <v>0.000227534812</v>
       </c>
-      <c r="M64" s="0" t="s">
+      <c r="M64" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N64" s="0" t="n">
+      <c r="N64" s="2" t="n">
         <v>1.3016</v>
       </c>
-      <c r="O64" s="0" t="n">
+      <c r="O64" s="2" t="n">
         <v>1.69726292600764</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="2" t="n">
         <v>0.167</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65" s="2" t="n">
         <v>0.070129</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65" s="2" t="n">
         <v>0.070129</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="I65" s="2" t="n">
         <v>0.114947</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65" s="2" t="n">
         <v>0.126566</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65" s="2" t="n">
         <v>1.17927E-005</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="L65" s="2" t="n">
         <v>0.000223078575</v>
       </c>
-      <c r="M65" s="0" t="s">
+      <c r="M65" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N65" s="0" t="n">
+      <c r="N65" s="2" t="n">
         <v>1.1992</v>
       </c>
-      <c r="O65" s="0" t="n">
+      <c r="O65" s="2" t="n">
         <v>1.55484512412008</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="2" t="n">
         <v>0.166</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66" s="2" t="n">
         <v>0.081797</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66" s="2" t="n">
         <v>0.081797</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="I66" s="2" t="n">
         <v>0.12117</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="J66" s="2" t="n">
         <v>0.149555</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="K66" s="2" t="n">
         <v>1.31061E-005</v>
       </c>
-      <c r="L66" s="0" t="n">
+      <c r="L66" s="2" t="n">
         <v>0.000238635568508287</v>
       </c>
-      <c r="M66" s="0" t="s">
+      <c r="M66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N66" s="0" t="n">
+      <c r="N66" s="2" t="n">
         <v>1.2952</v>
       </c>
-      <c r="O66" s="0" t="n">
+      <c r="O66" s="2" t="n">
         <v>2.22513661603057</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="2" t="n">
         <v>0.165</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67" s="2" t="n">
         <v>0.12121</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67" s="2" t="n">
         <v>-0.12121</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67" s="2" t="n">
         <v>0.14356</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67" s="2" t="n">
         <v>0.207767</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67" s="2" t="n">
         <v>1.45812E-005</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="L67" s="2" t="n">
         <v>0.000253869313192612</v>
       </c>
-      <c r="M67" s="0" t="s">
+      <c r="M67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N67" s="0" t="n">
+      <c r="N67" s="2" t="n">
         <v>1.302</v>
       </c>
-      <c r="O67" s="0" t="n">
+      <c r="O67" s="2" t="n">
         <v>1.4666178779764</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="2" t="n">
         <v>0.165</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68" s="2" t="n">
         <v>0.119568</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68" s="2" t="n">
         <v>-0.119568</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68" s="2" t="n">
         <v>0.14356</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="J68" s="2" t="n">
         <v>0.205817</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="K68" s="2" t="n">
         <v>1.43922E-005</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="L68" s="2" t="n">
         <v>0.00025305682287234</v>
       </c>
-      <c r="M68" s="0" t="s">
+      <c r="M68" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N68" s="0" t="n">
+      <c r="N68" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O68" s="0" t="n">
+      <c r="O68" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="2" t="n">
         <v>0.165</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69" s="2" t="n">
         <v>0.063134</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69" s="2" t="n">
         <v>-0.063134</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="I69" s="2" t="n">
         <v>0.104624</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="J69" s="2" t="n">
         <v>0.113955</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="K69" s="2" t="n">
         <v>1.50078E-005</v>
       </c>
-      <c r="L69" s="0" t="n">
+      <c r="L69" s="2" t="n">
         <v>0.000257953909660574</v>
       </c>
-      <c r="M69" s="0" t="s">
+      <c r="M69" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N69" s="0" t="n">
+      <c r="N69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O69" s="0" t="n">
+      <c r="O69" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="2" t="n">
         <v>0.164</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="G70" s="2" t="n">
         <v>0.079708</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70" s="2" t="n">
         <v>0.079708</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="I70" s="2" t="n">
         <v>0.135324</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="J70" s="2" t="n">
         <v>0.13791</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="K70" s="2" t="n">
         <v>1.64685E-005</v>
       </c>
-      <c r="L70" s="0" t="n">
+      <c r="L70" s="2" t="n">
         <v>0.00027103033875</v>
       </c>
-      <c r="M70" s="0" t="s">
+      <c r="M70" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N70" s="0" t="n">
+      <c r="N70" s="2" t="n">
         <v>0.4624</v>
       </c>
-      <c r="O70" s="0" t="n">
+      <c r="O70" s="2" t="n">
         <v>0.706966929919639</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="2" t="n">
         <v>0.164</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="G71" s="2" t="n">
         <v>0.076207</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71" s="2" t="n">
         <v>-0.076207</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="I71" s="2" t="n">
         <v>0.125506</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="J71" s="2" t="n">
         <v>0.147002</v>
       </c>
-      <c r="K71" s="0" t="n">
+      <c r="K71" s="2" t="n">
         <v>1.6155E-005</v>
       </c>
-      <c r="L71" s="0" t="n">
+      <c r="L71" s="2" t="n">
         <v>0.000267206947236181</v>
       </c>
-      <c r="M71" s="0" t="s">
+      <c r="M71" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N71" s="0" t="n">
+      <c r="N71" s="2" t="n">
         <v>1.0956</v>
       </c>
-      <c r="O71" s="0" t="n">
+      <c r="O71" s="2" t="n">
         <v>1.57562960114362</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="2" t="n">
         <v>0.164</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72" s="2" t="n">
         <v>0.058745</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72" s="2" t="n">
         <v>0.058745</v>
       </c>
-      <c r="I72" s="0" t="n">
+      <c r="I72" s="2" t="n">
         <v>0.092103</v>
       </c>
-      <c r="J72" s="0" t="n">
+      <c r="J72" s="2" t="n">
         <v>0.106413</v>
       </c>
-      <c r="K72" s="0" t="n">
+      <c r="K72" s="2" t="n">
         <v>1.68844E-005</v>
       </c>
-      <c r="L72" s="0" t="n">
+      <c r="L72" s="2" t="n">
         <v>0.000275508326732673</v>
       </c>
-      <c r="M72" s="0" t="s">
+      <c r="M72" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N72" s="0" t="n">
+      <c r="N72" s="2" t="n">
         <v>1.1416</v>
       </c>
-      <c r="O72" s="0" t="n">
+      <c r="O72" s="2" t="n">
         <v>1.37559494038034</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="2" t="n">
         <v>0.164</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73" s="2" t="n">
         <v>0.056983</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="H73" s="2" t="n">
         <v>0.056983</v>
       </c>
-      <c r="I73" s="0" t="n">
+      <c r="I73" s="2" t="n">
         <v>0.099221</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="J73" s="2" t="n">
         <v>0.102039</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="K73" s="2" t="n">
         <v>1.67136E-005</v>
       </c>
-      <c r="L73" s="0" t="n">
+      <c r="L73" s="2" t="n">
         <v>0.000274378126683292</v>
       </c>
-      <c r="M73" s="0" t="s">
+      <c r="M73" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="N73" s="0" t="n">
+      <c r="N73" s="2" t="n">
         <v>1.3056</v>
       </c>
-      <c r="O73" s="0" t="n">
+      <c r="O73" s="2" t="n">
         <v>1.64362058882213</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="2" t="n">
         <v>0.163</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74" s="2" t="n">
         <v>0.128817</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74" s="2" t="n">
         <v>-0.128817</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="I74" s="2" t="n">
         <v>0.184672</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="J74" s="2" t="n">
         <v>0.22778</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74" s="2" t="n">
         <v>1.95608E-005</v>
       </c>
-      <c r="L74" s="0" t="n">
+      <c r="L74" s="2" t="n">
         <v>0.000292656241818182</v>
       </c>
-      <c r="M74" s="0" t="s">
+      <c r="M74" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N74" s="0" t="n">
+      <c r="N74" s="2" t="n">
         <v>0.8728</v>
       </c>
-      <c r="O74" s="0" t="n">
+      <c r="O74" s="2" t="n">
         <v>1.06315575528706</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="2" t="n">
         <v>0.162</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75" s="2" t="n">
         <v>0.083936</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="H75" s="2" t="n">
         <v>-0.083936</v>
       </c>
-      <c r="I75" s="0" t="n">
+      <c r="I75" s="2" t="n">
         <v>0.143338</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="J75" s="2" t="n">
         <v>0.147948</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="K75" s="2" t="n">
         <v>2.07737E-005</v>
       </c>
-      <c r="L75" s="0" t="n">
+      <c r="L75" s="2" t="n">
         <v>0.000303896149111111</v>
       </c>
-      <c r="M75" s="0" t="s">
+      <c r="M75" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N75" s="0" t="n">
+      <c r="N75" s="2" t="n">
         <v>0.3304</v>
       </c>
-      <c r="O75" s="0" t="n">
+      <c r="O75" s="2" t="n">
         <v>0.377565676406106</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="2" t="n">
         <v>0.162</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76" s="2" t="n">
         <v>0.070292</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76" s="2" t="n">
         <v>-0.070292</v>
       </c>
-      <c r="I76" s="0" t="n">
+      <c r="I76" s="2" t="n">
         <v>0.096915</v>
       </c>
-      <c r="J76" s="0" t="n">
+      <c r="J76" s="2" t="n">
         <v>0.128362</v>
       </c>
-      <c r="K76" s="0" t="n">
+      <c r="K76" s="2" t="n">
         <v>2.04605E-005</v>
       </c>
-      <c r="L76" s="0" t="n">
+      <c r="L76" s="2" t="n">
         <v>0.000302491802017937</v>
       </c>
-      <c r="M76" s="0" t="s">
+      <c r="M76" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N76" s="0" t="n">
+      <c r="N76" s="2" t="n">
         <v>1.5284</v>
       </c>
-      <c r="O76" s="0" t="n">
+      <c r="O76" s="2" t="n">
         <v>2.41892154482116</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="2" t="n">
         <v>0.161</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="G77" s="2" t="n">
         <v>0.068424</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="H77" s="2" t="n">
         <v>-0.068424</v>
       </c>
-      <c r="I77" s="0" t="n">
+      <c r="I77" s="2" t="n">
         <v>0.096915</v>
       </c>
-      <c r="J77" s="0" t="n">
+      <c r="J77" s="2" t="n">
         <v>0.126975</v>
       </c>
-      <c r="K77" s="0" t="n">
+      <c r="K77" s="2" t="n">
         <v>2.44554E-005</v>
       </c>
-      <c r="L77" s="0" t="n">
+      <c r="L77" s="2" t="n">
         <v>0.000331594920781893</v>
       </c>
-      <c r="M77" s="0" t="s">
+      <c r="M77" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N77" s="0" t="n">
+      <c r="N77" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O77" s="0" t="n">
+      <c r="O77" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="2" t="n">
         <v>0.161</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="G78" s="2" t="n">
         <v>0.058976</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="H78" s="2" t="n">
         <v>-0.058976</v>
       </c>
-      <c r="I78" s="0" t="n">
+      <c r="I78" s="2" t="n">
         <v>0.096823</v>
       </c>
-      <c r="J78" s="0" t="n">
+      <c r="J78" s="2" t="n">
         <v>0.114647</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="K78" s="2" t="n">
         <v>2.47639E-005</v>
       </c>
-      <c r="L78" s="0" t="n">
+      <c r="L78" s="2" t="n">
         <v>0.00033474487412731</v>
       </c>
-      <c r="M78" s="0" t="s">
+      <c r="M78" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N78" s="0" t="n">
+      <c r="N78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O78" s="0" t="n">
+      <c r="O78" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="2" t="n">
         <v>0.161</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79" s="2" t="n">
         <v>0.057828</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79" s="2" t="n">
         <v>0.057828</v>
       </c>
-      <c r="I79" s="0" t="n">
+      <c r="I79" s="2" t="n">
         <v>0.088362</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="J79" s="2" t="n">
         <v>0.106085</v>
       </c>
-      <c r="K79" s="0" t="n">
+      <c r="K79" s="2" t="n">
         <v>2.37223E-005</v>
       </c>
-      <c r="L79" s="0" t="n">
+      <c r="L79" s="2" t="n">
         <v>0.000328075422058823</v>
       </c>
-      <c r="M79" s="0" t="s">
+      <c r="M79" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N79" s="0" t="n">
+      <c r="N79" s="2" t="n">
         <v>1.3044</v>
       </c>
-      <c r="O79" s="0" t="n">
+      <c r="O79" s="2" t="n">
         <v>1.65710127632562</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80" s="2" t="n">
         <v>0.059281</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80" s="2" t="n">
         <v>-0.059281</v>
       </c>
-      <c r="I80" s="0" t="n">
+      <c r="I80" s="2" t="n">
         <v>0.100693</v>
       </c>
-      <c r="J80" s="0" t="n">
+      <c r="J80" s="2" t="n">
         <v>0.120806</v>
       </c>
-      <c r="K80" s="0" t="n">
+      <c r="K80" s="2" t="n">
         <v>2.74312E-005</v>
       </c>
-      <c r="L80" s="0" t="n">
+      <c r="L80" s="2" t="n">
         <v>0.000359081055666004</v>
       </c>
-      <c r="M80" s="0" t="s">
+      <c r="M80" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N80" s="0" t="n">
+      <c r="N80" s="2" t="n">
         <v>0.7572</v>
       </c>
-      <c r="O80" s="0" t="n">
+      <c r="O80" s="2" t="n">
         <v>1.47124850382252</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="2" t="n">
         <v>0.159</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="G81" s="2" t="n">
         <v>0.103808</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="H81" s="2" t="n">
         <v>0.103808</v>
       </c>
-      <c r="I81" s="0" t="n">
+      <c r="I81" s="2" t="n">
         <v>0.140977</v>
       </c>
-      <c r="J81" s="0" t="n">
+      <c r="J81" s="2" t="n">
         <v>0.179008</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="K81" s="2" t="n">
         <v>1.39525E-005</v>
       </c>
-      <c r="L81" s="0" t="n">
+      <c r="L81" s="2" t="n">
         <v>0.000247572257412399</v>
       </c>
-      <c r="M81" s="0" t="s">
+      <c r="M81" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N81" s="0" t="n">
+      <c r="N81" s="2" t="n">
         <v>0.2332</v>
       </c>
-      <c r="O81" s="0" t="n">
+      <c r="O81" s="2" t="n">
         <v>0.593920668103073</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="2" t="n">
         <v>0.158</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82" s="2" t="n">
         <v>0.089108</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82" s="2" t="n">
         <v>-0.089108</v>
       </c>
-      <c r="I82" s="0" t="n">
+      <c r="I82" s="2" t="n">
         <v>0.164444</v>
       </c>
-      <c r="J82" s="0" t="n">
+      <c r="J82" s="2" t="n">
         <v>0.163909</v>
       </c>
-      <c r="K82" s="0" t="n">
+      <c r="K82" s="2" t="n">
         <v>3.4943E-005</v>
       </c>
-      <c r="L82" s="0" t="n">
+      <c r="L82" s="2" t="n">
         <v>0.000419654858652095</v>
       </c>
-      <c r="M82" s="0" t="s">
+      <c r="M82" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="N82" s="0" t="n">
+      <c r="N82" s="2" t="n">
         <v>1.014</v>
       </c>
-      <c r="O82" s="0" t="n">
+      <c r="O82" s="2" t="n">
         <v>1.53933751984417</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="2" t="n">
         <v>0.157</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83" s="2" t="n">
         <v>0.127895</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83" s="2" t="n">
         <v>-0.127895</v>
       </c>
-      <c r="I83" s="0" t="n">
+      <c r="I83" s="2" t="n">
         <v>0.151304</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="J83" s="2" t="n">
         <v>0.258491</v>
       </c>
-      <c r="K83" s="0" t="n">
+      <c r="K83" s="2" t="n">
         <v>3.5062E-005</v>
       </c>
-      <c r="L83" s="0" t="n">
+      <c r="L83" s="2" t="n">
         <v>0.000419660265454545</v>
       </c>
-      <c r="M83" s="0" t="s">
+      <c r="M83" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N83" s="0" t="n">
+      <c r="N83" s="2" t="n">
         <v>0.8332</v>
       </c>
-      <c r="O83" s="0" t="n">
+      <c r="O83" s="2" t="n">
         <v>1.36069605717074</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="2" t="n">
         <v>0.157</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84" s="2" t="n">
         <v>0.09348</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H84" s="2" t="n">
         <v>0.09348</v>
       </c>
-      <c r="I84" s="0" t="n">
+      <c r="I84" s="2" t="n">
         <v>0.163797</v>
       </c>
-      <c r="J84" s="0" t="n">
+      <c r="J84" s="2" t="n">
         <v>0.179896</v>
       </c>
-      <c r="K84" s="0" t="n">
+      <c r="K84" s="2" t="n">
         <v>3.92738E-005</v>
       </c>
-      <c r="L84" s="0" t="n">
+      <c r="L84" s="2" t="n">
         <v>0.000448853169097222</v>
       </c>
-      <c r="M84" s="0" t="s">
+      <c r="M84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N84" s="0" t="n">
+      <c r="N84" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O84" s="0" t="n">
+      <c r="O84" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="2" t="n">
         <v>0.156</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85" s="2" t="n">
         <v>0.093808</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85" s="2" t="n">
         <v>-0.093808</v>
       </c>
-      <c r="I85" s="0" t="n">
+      <c r="I85" s="2" t="n">
         <v>0.157361</v>
       </c>
-      <c r="J85" s="0" t="n">
+      <c r="J85" s="2" t="n">
         <v>0.1688</v>
       </c>
-      <c r="K85" s="0" t="n">
+      <c r="K85" s="2" t="n">
         <v>4.17879E-005</v>
       </c>
-      <c r="L85" s="0" t="n">
+      <c r="L85" s="2" t="n">
         <v>0.000458201992845258</v>
       </c>
-      <c r="M85" s="0" t="s">
+      <c r="M85" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N85" s="0" t="n">
+      <c r="N85" s="2" t="n">
         <v>0.3796</v>
       </c>
-      <c r="O85" s="0" t="n">
+      <c r="O85" s="2" t="n">
         <v>0.84375579405418</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="2" t="n">
         <v>0.155</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86" s="2" t="n">
         <v>0.110281</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86" s="2" t="n">
         <v>0.110281</v>
       </c>
-      <c r="I86" s="0" t="n">
+      <c r="I86" s="2" t="n">
         <v>0.178578</v>
       </c>
-      <c r="J86" s="0" t="n">
+      <c r="J86" s="2" t="n">
         <v>0.202098</v>
       </c>
-      <c r="K86" s="0" t="n">
+      <c r="K86" s="2" t="n">
         <v>4.60794E-005</v>
       </c>
-      <c r="L86" s="0" t="n">
+      <c r="L86" s="2" t="n">
         <v>0.000486122900961538</v>
       </c>
-      <c r="M86" s="0" t="s">
+      <c r="M86" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N86" s="0" t="n">
+      <c r="N86" s="2" t="n">
         <v>0.2724</v>
       </c>
-      <c r="O86" s="0" t="n">
+      <c r="O86" s="2" t="n">
         <v>0.623809458087965</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="2" t="n">
         <v>0.155</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="G87" s="2" t="n">
         <v>0.087029</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87" s="2" t="n">
         <v>-0.087029</v>
       </c>
-      <c r="I87" s="0" t="n">
+      <c r="I87" s="2" t="n">
         <v>0.163718</v>
       </c>
-      <c r="J87" s="0" t="n">
+      <c r="J87" s="2" t="n">
         <v>0.162392</v>
       </c>
-      <c r="K87" s="0" t="n">
+      <c r="K87" s="2" t="n">
         <v>4.89002E-005</v>
       </c>
-      <c r="L87" s="0" t="n">
+      <c r="L87" s="2" t="n">
         <v>0.00050780012970451</v>
       </c>
-      <c r="M87" s="0" t="s">
+      <c r="M87" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="N87" s="0" t="n">
+      <c r="N87" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O87" s="0" t="n">
+      <c r="O87" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" s="2" t="n">
         <v>0.155</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="G88" s="2" t="n">
         <v>0.066867</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88" s="2" t="n">
         <v>-0.066867</v>
       </c>
-      <c r="I88" s="0" t="n">
+      <c r="I88" s="2" t="n">
         <v>0.105803</v>
       </c>
-      <c r="J88" s="0" t="n">
+      <c r="J88" s="2" t="n">
         <v>0.12943</v>
       </c>
-      <c r="K88" s="0" t="n">
+      <c r="K88" s="2" t="n">
         <v>4.72622E-005</v>
       </c>
-      <c r="L88" s="0" t="n">
+      <c r="L88" s="2" t="n">
         <v>0.000496215410845295</v>
       </c>
-      <c r="M88" s="0" t="s">
+      <c r="M88" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="N88" s="0" t="n">
+      <c r="N88" s="2" t="n">
         <v>0.3352</v>
       </c>
-      <c r="O88" s="0" t="n">
+      <c r="O88" s="2" t="n">
         <v>0.649905346954462</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89" s="2" t="n">
         <v>0.155</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="G89" s="2" t="n">
         <v>0.059593</v>
       </c>
-      <c r="H89" s="0" t="n">
+      <c r="H89" s="2" t="n">
         <v>-0.059593</v>
       </c>
-      <c r="I89" s="0" t="n">
+      <c r="I89" s="2" t="n">
         <v>0.104862</v>
       </c>
-      <c r="J89" s="0" t="n">
+      <c r="J89" s="2" t="n">
         <v>0.110749</v>
       </c>
-      <c r="K89" s="0" t="n">
+      <c r="K89" s="2" t="n">
         <v>4.95233E-005</v>
       </c>
-      <c r="L89" s="0" t="n">
+      <c r="L89" s="2" t="n">
         <v>0.00050780012970451</v>
       </c>
-      <c r="M89" s="0" t="s">
+      <c r="M89" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N89" s="0" t="n">
+      <c r="N89" s="2" t="n">
         <v>0.482</v>
       </c>
-      <c r="O89" s="0" t="n">
+      <c r="O89" s="2" t="n">
         <v>0.672</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" s="2" t="n">
         <v>0.154</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90" s="2" t="n">
         <v>0.092099</v>
       </c>
-      <c r="H90" s="0" t="n">
+      <c r="H90" s="2" t="n">
         <v>-0.092099</v>
       </c>
-      <c r="I90" s="0" t="n">
+      <c r="I90" s="2" t="n">
         <v>0.142836</v>
       </c>
-      <c r="J90" s="0" t="n">
+      <c r="J90" s="2" t="n">
         <v>0.171547</v>
       </c>
-      <c r="K90" s="0" t="n">
+      <c r="K90" s="2" t="n">
         <v>5.21087E-005</v>
       </c>
-      <c r="L90" s="0" t="n">
+      <c r="L90" s="2" t="n">
         <v>0.000519822959909228</v>
       </c>
-      <c r="M90" s="0" t="s">
+      <c r="M90" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N90" s="0" t="n">
+      <c r="N90" s="2" t="n">
         <v>1.0652</v>
       </c>
-      <c r="O90" s="0" t="n">
+      <c r="O90" s="2" t="n">
         <v>1.91689983045542</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="2" t="n">
         <v>0.154</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="G91" s="2" t="n">
         <v>0.0823</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91" s="2" t="n">
         <v>-0.0823</v>
       </c>
-      <c r="I91" s="0" t="n">
+      <c r="I91" s="2" t="n">
         <v>0.136264</v>
       </c>
-      <c r="J91" s="0" t="n">
+      <c r="J91" s="2" t="n">
         <v>0.177551</v>
       </c>
-      <c r="K91" s="0" t="n">
+      <c r="K91" s="2" t="n">
         <v>4.95998E-005</v>
       </c>
-      <c r="L91" s="0" t="n">
+      <c r="L91" s="2" t="n">
         <v>0.00050780012970451</v>
       </c>
-      <c r="M91" s="0" t="s">
+      <c r="M91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N91" s="0" t="n">
+      <c r="N91" s="2" t="n">
         <v>0.3668</v>
       </c>
-      <c r="O91" s="0" t="n">
+      <c r="O91" s="2" t="n">
         <v>0.691767128447139</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="2" t="n">
         <v>0.154</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="G92" s="2" t="n">
         <v>0.062226</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="H92" s="2" t="n">
         <v>0.062226</v>
       </c>
-      <c r="I92" s="0" t="n">
+      <c r="I92" s="2" t="n">
         <v>0.144085</v>
       </c>
-      <c r="J92" s="0" t="n">
+      <c r="J92" s="2" t="n">
         <v>0.119863</v>
       </c>
-      <c r="K92" s="0" t="n">
+      <c r="K92" s="2" t="n">
         <v>5.67243E-005</v>
       </c>
-      <c r="L92" s="0" t="n">
+      <c r="L92" s="2" t="n">
         <v>0.000547530889882698</v>
       </c>
-      <c r="M92" s="0" t="s">
+      <c r="M92" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N92" s="0" t="n">
+      <c r="N92" s="2" t="n">
         <v>0.7152</v>
       </c>
-      <c r="O92" s="0" t="n">
+      <c r="O92" s="2" t="n">
         <v>1.18630559300713</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="2" t="n">
         <v>0.153</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="G93" s="2" t="n">
         <v>0.085041</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="H93" s="2" t="n">
         <v>-0.085041</v>
       </c>
-      <c r="I93" s="0" t="n">
+      <c r="I93" s="2" t="n">
         <v>0.135864</v>
       </c>
-      <c r="J93" s="0" t="n">
+      <c r="J93" s="2" t="n">
         <v>0.161279</v>
       </c>
-      <c r="K93" s="0" t="n">
+      <c r="K93" s="2" t="n">
         <v>5.89434E-005</v>
       </c>
-      <c r="L93" s="0" t="n">
+      <c r="L93" s="2" t="n">
         <v>0.000560816424566474</v>
       </c>
-      <c r="M93" s="0" t="s">
+      <c r="M93" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N93" s="0" t="n">
+      <c r="N93" s="2" t="n">
         <v>0.4736</v>
       </c>
-      <c r="O93" s="0" t="n">
+      <c r="O93" s="2" t="n">
         <v>0.930689550817027</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="2" t="n">
         <v>0.153</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="G94" s="2" t="n">
         <v>0.069595</v>
       </c>
-      <c r="H94" s="0" t="n">
+      <c r="H94" s="2" t="n">
         <v>-0.069595</v>
       </c>
-      <c r="I94" s="0" t="n">
+      <c r="I94" s="2" t="n">
         <v>0.107314</v>
       </c>
-      <c r="J94" s="0" t="n">
+      <c r="J94" s="2" t="n">
         <v>0.134698</v>
       </c>
-      <c r="K94" s="0" t="n">
+      <c r="K94" s="2" t="n">
         <v>5.98446E-005</v>
       </c>
-      <c r="L94" s="0" t="n">
+      <c r="L94" s="2" t="n">
         <v>0.000565752974322397</v>
       </c>
-      <c r="M94" s="0" t="s">
+      <c r="M94" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="N94" s="0" t="n">
+      <c r="N94" s="2" t="n">
         <v>0.7708</v>
       </c>
-      <c r="O94" s="0" t="n">
+      <c r="O94" s="2" t="n">
         <v>1.299177955478</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" s="2" t="n">
         <v>0.153</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="G95" s="2" t="n">
         <v>0.062678</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="H95" s="2" t="n">
         <v>-0.062678</v>
       </c>
-      <c r="I95" s="0" t="n">
+      <c r="I95" s="2" t="n">
         <v>0.109868</v>
       </c>
-      <c r="J95" s="0" t="n">
+      <c r="J95" s="2" t="n">
         <v>0.123054</v>
       </c>
-      <c r="K95" s="0" t="n">
+      <c r="K95" s="2" t="n">
         <v>6.11557E-005</v>
       </c>
-      <c r="L95" s="0" t="n">
+      <c r="L95" s="2" t="n">
         <v>0.00057023792223796</v>
       </c>
-      <c r="M95" s="0" t="s">
+      <c r="M95" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="N95" s="0" t="n">
+      <c r="N95" s="2" t="n">
         <v>0.3336</v>
       </c>
-      <c r="O95" s="0" t="n">
+      <c r="O95" s="2" t="n">
         <v>0.598524051312894</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="2" t="n">
         <v>0.152</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="G96" s="2" t="n">
         <v>0.070636</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H96" s="2" t="n">
         <v>-0.070636</v>
       </c>
-      <c r="I96" s="0" t="n">
+      <c r="I96" s="2" t="n">
         <v>0.127109</v>
       </c>
-      <c r="J96" s="0" t="n">
+      <c r="J96" s="2" t="n">
         <v>0.13452</v>
       </c>
-      <c r="K96" s="0" t="n">
+      <c r="K96" s="2" t="n">
         <v>7.07716E-005</v>
       </c>
-      <c r="L96" s="0" t="n">
+      <c r="L96" s="2" t="n">
         <v>0.000626195487634409</v>
       </c>
-      <c r="M96" s="0" t="s">
+      <c r="M96" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="N96" s="0" t="n">
+      <c r="N96" s="2" t="n">
         <v>0.1848</v>
       </c>
-      <c r="O96" s="0" t="n">
+      <c r="O96" s="2" t="n">
         <v>0.448866305262491</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="2" t="n">
         <v>0.151</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97" s="2" t="n">
         <v>0.071208</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="H97" s="2" t="n">
         <v>0.071208</v>
       </c>
-      <c r="I97" s="0" t="n">
+      <c r="I97" s="2" t="n">
         <v>0.136279</v>
       </c>
-      <c r="J97" s="0" t="n">
+      <c r="J97" s="2" t="n">
         <v>0.155749</v>
       </c>
-      <c r="K97" s="0" t="n">
+      <c r="K97" s="2" t="n">
         <v>7.75388E-005</v>
       </c>
-      <c r="L97" s="0" t="n">
+      <c r="L97" s="2" t="n">
         <v>0.000656934260489061</v>
       </c>
-      <c r="M97" s="0" t="s">
+      <c r="M97" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N97" s="0" t="n">
+      <c r="N97" s="2" t="n">
         <v>0.3264</v>
       </c>
-      <c r="O97" s="0" t="n">
+      <c r="O97" s="2" t="n">
         <v>0.451201773046162</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" s="2" t="n">
         <v>0.151</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="G98" s="2" t="n">
         <v>0.060954</v>
       </c>
-      <c r="H98" s="0" t="n">
+      <c r="H98" s="2" t="n">
         <v>0.060954</v>
       </c>
-      <c r="I98" s="0" t="n">
+      <c r="I98" s="2" t="n">
         <v>0.09901</v>
       </c>
-      <c r="J98" s="0" t="n">
+      <c r="J98" s="2" t="n">
         <v>0.121406</v>
       </c>
-      <c r="K98" s="0" t="n">
+      <c r="K98" s="2" t="n">
         <v>7.21707E-005</v>
       </c>
-      <c r="L98" s="0" t="n">
+      <c r="L98" s="2" t="n">
         <v>0.000630944753846154</v>
       </c>
-      <c r="M98" s="0" t="s">
+      <c r="M98" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N98" s="0" t="n">
+      <c r="N98" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O98" s="0" t="n">
+      <c r="O98" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="G99" s="2" t="n">
         <v>0.056439</v>
       </c>
-      <c r="H99" s="0" t="n">
+      <c r="H99" s="2" t="n">
         <v>-0.056439</v>
       </c>
-      <c r="I99" s="0" t="n">
+      <c r="I99" s="2" t="n">
         <v>0.09452</v>
       </c>
-      <c r="J99" s="0" t="n">
+      <c r="J99" s="2" t="n">
         <v>0.108682</v>
       </c>
-      <c r="K99" s="0" t="n">
+      <c r="K99" s="2" t="n">
         <v>8.37637E-005</v>
       </c>
-      <c r="L99" s="0" t="n">
+      <c r="L99" s="2" t="n">
         <v>0.0006853725875</v>
       </c>
-      <c r="M99" s="0" t="s">
+      <c r="M99" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="N99" s="0" t="n">
+      <c r="N99" s="2" t="n">
         <v>0.6844</v>
       </c>
-      <c r="O99" s="0" t="n">
+      <c r="O99" s="2" t="n">
         <v>0.941892053263005</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" s="2" t="n">
         <v>0.149</v>
       </c>
-      <c r="G100" s="0" t="n">
+      <c r="G100" s="2" t="n">
         <v>0.075519</v>
       </c>
-      <c r="H100" s="0" t="n">
+      <c r="H100" s="2" t="n">
         <v>0.075519</v>
       </c>
-      <c r="I100" s="0" t="n">
+      <c r="I100" s="2" t="n">
         <v>0.131494</v>
       </c>
-      <c r="J100" s="0" t="n">
+      <c r="J100" s="2" t="n">
         <v>0.155207</v>
       </c>
-      <c r="K100" s="0" t="n">
+      <c r="K100" s="2" t="n">
         <v>9.07177E-005</v>
       </c>
-      <c r="L100" s="0" t="n">
+      <c r="L100" s="2" t="n">
         <v>0.000715203136646707</v>
       </c>
-      <c r="M100" s="0" t="s">
+      <c r="M100" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="N100" s="0" t="n">
+      <c r="N100" s="2" t="n">
         <v>0.376</v>
       </c>
-      <c r="O100" s="0" t="n">
+      <c r="O100" s="2" t="n">
         <v>0.526003802267626</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" s="2" t="n">
         <v>0.149</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="G101" s="2" t="n">
         <v>0.073526</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101" s="2" t="n">
         <v>0.073526</v>
       </c>
-      <c r="I101" s="0" t="n">
+      <c r="I101" s="2" t="n">
         <v>0.133612</v>
       </c>
-      <c r="J101" s="0" t="n">
+      <c r="J101" s="2" t="n">
         <v>0.157088</v>
       </c>
-      <c r="K101" s="0" t="n">
+      <c r="K101" s="2" t="n">
         <v>8.99274E-005</v>
       </c>
-      <c r="L101" s="0" t="n">
+      <c r="L101" s="2" t="n">
         <v>0.000714394131167268</v>
       </c>
-      <c r="M101" s="0" t="s">
+      <c r="M101" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="N101" s="0" t="n">
+      <c r="N101" s="2" t="n">
         <v>2.0508</v>
       </c>
-      <c r="O101" s="0" t="n">
+      <c r="O101" s="2" t="n">
         <v>2.33827786201726</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" s="2" t="n">
         <v>0.149</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="G102" s="2" t="n">
         <v>0.069627</v>
       </c>
-      <c r="H102" s="0" t="n">
+      <c r="H102" s="2" t="n">
         <v>-0.069627</v>
       </c>
-      <c r="I102" s="0" t="n">
+      <c r="I102" s="2" t="n">
         <v>0.113251</v>
       </c>
-      <c r="J102" s="0" t="n">
+      <c r="J102" s="2" t="n">
         <v>0.143949</v>
       </c>
-      <c r="K102" s="0" t="n">
+      <c r="K102" s="2" t="n">
         <v>9.33271E-005</v>
       </c>
-      <c r="L102" s="0" t="n">
+      <c r="L102" s="2" t="n">
         <v>0.000725351002715466</v>
       </c>
-      <c r="M102" s="0" t="s">
+      <c r="M102" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="N102" s="0" t="n">
+      <c r="N102" s="2" t="n">
         <v>0.8428</v>
       </c>
-      <c r="O102" s="0" t="n">
+      <c r="O102" s="2" t="n">
         <v>1.31409442583096</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="2" t="n">
         <v>0.149</v>
       </c>
-      <c r="G103" s="0" t="n">
+      <c r="G103" s="2" t="n">
         <v>0.067384</v>
       </c>
-      <c r="H103" s="0" t="n">
+      <c r="H103" s="2" t="n">
         <v>0.067384</v>
       </c>
-      <c r="I103" s="0" t="n">
+      <c r="I103" s="2" t="n">
         <v>0.134029</v>
       </c>
-      <c r="J103" s="0" t="n">
+      <c r="J103" s="2" t="n">
         <v>0.143995</v>
       </c>
-      <c r="K103" s="0" t="n">
+      <c r="K103" s="2" t="n">
         <v>9.53087E-005</v>
       </c>
-      <c r="L103" s="0" t="n">
+      <c r="L103" s="2" t="n">
         <v>0.000731255445337995</v>
       </c>
-      <c r="M103" s="0" t="s">
+      <c r="M103" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="N103" s="0" t="n">
+      <c r="N103" s="2" t="n">
         <v>0.8684</v>
       </c>
-      <c r="O103" s="0" t="n">
+      <c r="O103" s="2" t="n">
         <v>1.46946705985538</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" s="2" t="n">
         <v>0.149</v>
       </c>
-      <c r="G104" s="0" t="n">
+      <c r="G104" s="2" t="n">
         <v>0.063073</v>
       </c>
-      <c r="H104" s="0" t="n">
+      <c r="H104" s="2" t="n">
         <v>-0.063073</v>
       </c>
-      <c r="I104" s="0" t="n">
+      <c r="I104" s="2" t="n">
         <v>0.107731</v>
       </c>
-      <c r="J104" s="0" t="n">
+      <c r="J104" s="2" t="n">
         <v>0.126806</v>
       </c>
-      <c r="K104" s="0" t="n">
+      <c r="K104" s="2" t="n">
         <v>9.08744E-005</v>
       </c>
-      <c r="L104" s="0" t="n">
+      <c r="L104" s="2" t="n">
         <v>0.000715581549282297</v>
       </c>
-      <c r="M104" s="0" t="s">
+      <c r="M104" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="N104" s="0" t="n">
+      <c r="N104" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O104" s="0" t="n">
+      <c r="O104" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105" s="2" t="n">
         <v>0.148</v>
       </c>
-      <c r="G105" s="0" t="n">
+      <c r="G105" s="2" t="n">
         <v>0.076361</v>
       </c>
-      <c r="H105" s="0" t="n">
+      <c r="H105" s="2" t="n">
         <v>-0.076361</v>
       </c>
-      <c r="I105" s="0" t="n">
+      <c r="I105" s="2" t="n">
         <v>0.140513</v>
       </c>
-      <c r="J105" s="0" t="n">
+      <c r="J105" s="2" t="n">
         <v>0.148387</v>
       </c>
-      <c r="K105" s="0" t="n">
+      <c r="K105" s="2" t="n">
         <v>0.0001082367</v>
       </c>
-      <c r="L105" s="0" t="n">
+      <c r="L105" s="2" t="n">
         <v>0.000789974596452328</v>
       </c>
-      <c r="M105" s="0" t="s">
+      <c r="M105" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="N105" s="0" t="n">
+      <c r="N105" s="2" t="n">
         <v>0.5372</v>
       </c>
-      <c r="O105" s="0" t="n">
+      <c r="O105" s="2" t="n">
         <v>1.04173900762139</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106" s="2" t="n">
         <v>0.148</v>
       </c>
-      <c r="G106" s="0" t="n">
+      <c r="G106" s="2" t="n">
         <v>0.067069</v>
       </c>
-      <c r="H106" s="0" t="n">
+      <c r="H106" s="2" t="n">
         <v>-0.067069</v>
       </c>
-      <c r="I106" s="0" t="n">
+      <c r="I106" s="2" t="n">
         <v>0.120409</v>
       </c>
-      <c r="J106" s="0" t="n">
+      <c r="J106" s="2" t="n">
         <v>0.137261</v>
       </c>
-      <c r="K106" s="0" t="n">
+      <c r="K106" s="2" t="n">
         <v>0.0001029136</v>
       </c>
-      <c r="L106" s="0" t="n">
+      <c r="L106" s="2" t="n">
         <v>0.000768137690486976</v>
       </c>
-      <c r="M106" s="0" t="s">
+      <c r="M106" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N106" s="0" t="n">
+      <c r="N106" s="2" t="n">
         <v>0.1064</v>
       </c>
-      <c r="O106" s="0" t="n">
+      <c r="O106" s="2" t="n">
         <v>0.249765970460349</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107" s="2" t="n">
         <v>0.147</v>
       </c>
-      <c r="G107" s="0" t="n">
+      <c r="G107" s="2" t="n">
         <v>0.086326</v>
       </c>
-      <c r="H107" s="0" t="n">
+      <c r="H107" s="2" t="n">
         <v>0.086326</v>
       </c>
-      <c r="I107" s="0" t="n">
+      <c r="I107" s="2" t="n">
         <v>0.163515</v>
       </c>
-      <c r="J107" s="0" t="n">
+      <c r="J107" s="2" t="n">
         <v>0.196429</v>
       </c>
-      <c r="K107" s="0" t="n">
+      <c r="K107" s="2" t="n">
         <v>0.0001112582</v>
       </c>
-      <c r="L107" s="0" t="n">
+      <c r="L107" s="2" t="n">
         <v>0.000798744727282609</v>
       </c>
-      <c r="M107" s="0" t="s">
+      <c r="M107" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N107" s="0" t="n">
+      <c r="N107" s="2" t="n">
         <v>0.4204</v>
       </c>
-      <c r="O107" s="0" t="n">
+      <c r="O107" s="2" t="n">
         <v>0.765639497413763</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108" s="2" t="n">
         <v>0.147</v>
       </c>
-      <c r="G108" s="0" t="n">
+      <c r="G108" s="2" t="n">
         <v>0.079575</v>
       </c>
-      <c r="H108" s="0" t="n">
+      <c r="H108" s="2" t="n">
         <v>-0.079575</v>
       </c>
-      <c r="I108" s="0" t="n">
+      <c r="I108" s="2" t="n">
         <v>0.14562</v>
       </c>
-      <c r="J108" s="0" t="n">
+      <c r="J108" s="2" t="n">
         <v>0.1602</v>
       </c>
-      <c r="K108" s="0" t="n">
+      <c r="K108" s="2" t="n">
         <v>0.0001145882</v>
       </c>
-      <c r="L108" s="0" t="n">
+      <c r="L108" s="2" t="n">
         <v>0.000810741970744681</v>
       </c>
-      <c r="M108" s="0" t="s">
+      <c r="M108" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N108" s="0" t="n">
+      <c r="N108" s="2" t="n">
         <v>0.322</v>
       </c>
-      <c r="O108" s="0" t="n">
+      <c r="O108" s="2" t="n">
         <v>0.559942854227108</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" s="2" t="n">
         <v>0.146</v>
       </c>
-      <c r="G109" s="0" t="n">
+      <c r="G109" s="2" t="n">
         <v>0.068957</v>
       </c>
-      <c r="H109" s="0" t="n">
+      <c r="H109" s="2" t="n">
         <v>0.068957</v>
       </c>
-      <c r="I109" s="0" t="n">
+      <c r="I109" s="2" t="n">
         <v>0.1314</v>
       </c>
-      <c r="J109" s="0" t="n">
+      <c r="J109" s="2" t="n">
         <v>0.140413</v>
       </c>
-      <c r="K109" s="0" t="n">
+      <c r="K109" s="2" t="n">
         <v>0.0001308643</v>
       </c>
-      <c r="L109" s="0" t="n">
+      <c r="L109" s="2" t="n">
         <v>0.000868427103729839</v>
       </c>
-      <c r="M109" s="0" t="s">
+      <c r="M109" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="N109" s="0" t="n">
+      <c r="N109" s="2" t="n">
         <v>0.6972</v>
       </c>
-      <c r="O109" s="0" t="n">
+      <c r="O109" s="2" t="n">
         <v>1.0563503964121</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110" s="2" t="n">
         <v>0.145</v>
       </c>
-      <c r="G110" s="0" t="n">
+      <c r="G110" s="2" t="n">
         <v>0.124999</v>
       </c>
-      <c r="H110" s="0" t="n">
+      <c r="H110" s="2" t="n">
         <v>0.124999</v>
       </c>
-      <c r="I110" s="0" t="n">
+      <c r="I110" s="2" t="n">
         <v>0.180151</v>
       </c>
-      <c r="J110" s="0" t="n">
+      <c r="J110" s="2" t="n">
         <v>0.242281</v>
       </c>
-      <c r="K110" s="0" t="n">
+      <c r="K110" s="2" t="n">
         <v>0.000144842</v>
       </c>
-      <c r="L110" s="0" t="n">
+      <c r="L110" s="2" t="n">
         <v>0.000911562988527725</v>
       </c>
-      <c r="M110" s="0" t="s">
+      <c r="M110" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N110" s="0" t="n">
+      <c r="N110" s="2" t="n">
         <v>1.7408</v>
       </c>
-      <c r="O110" s="0" t="n">
+      <c r="O110" s="2" t="n">
         <v>2.31711703631905</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111" s="2" t="n">
         <v>0.144</v>
       </c>
-      <c r="G111" s="0" t="n">
+      <c r="G111" s="2" t="n">
         <v>0.101763</v>
       </c>
-      <c r="H111" s="0" t="n">
+      <c r="H111" s="2" t="n">
         <v>0.101763</v>
       </c>
-      <c r="I111" s="0" t="n">
+      <c r="I111" s="2" t="n">
         <v>0.16129</v>
       </c>
-      <c r="J111" s="0" t="n">
+      <c r="J111" s="2" t="n">
         <v>0.209898</v>
       </c>
-      <c r="K111" s="0" t="n">
+      <c r="K111" s="2" t="n">
         <v>0.0001563883</v>
       </c>
-      <c r="L111" s="0" t="n">
+      <c r="L111" s="2" t="n">
         <v>0.000950604043305632</v>
       </c>
-      <c r="M111" s="0" t="s">
+      <c r="M111" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N111" s="0" t="n">
+      <c r="N111" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O111" s="0" t="n">
+      <c r="O111" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112" s="2" t="n">
         <v>0.143</v>
       </c>
-      <c r="G112" s="0" t="n">
+      <c r="G112" s="2" t="n">
         <v>0.069574</v>
       </c>
-      <c r="H112" s="0" t="n">
+      <c r="H112" s="2" t="n">
         <v>-0.069574</v>
       </c>
-      <c r="I112" s="0" t="n">
+      <c r="I112" s="2" t="n">
         <v>0.126051</v>
       </c>
-      <c r="J112" s="0" t="n">
+      <c r="J112" s="2" t="n">
         <v>0.15934</v>
       </c>
-      <c r="K112" s="0" t="n">
+      <c r="K112" s="2" t="n">
         <v>0.0001734947</v>
       </c>
-      <c r="L112" s="0" t="n">
+      <c r="L112" s="2" t="n">
         <v>0.00100715662266314</v>
       </c>
-      <c r="M112" s="0" t="s">
+      <c r="M112" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N112" s="0" t="n">
+      <c r="N112" s="2" t="n">
         <v>0.3632</v>
       </c>
-      <c r="O112" s="0" t="n">
+      <c r="O112" s="2" t="n">
         <v>0.326260264206354</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113" s="2" t="n">
         <v>0.143</v>
       </c>
-      <c r="G113" s="0" t="n">
+      <c r="G113" s="2" t="n">
         <v>0.067181</v>
       </c>
-      <c r="H113" s="0" t="n">
+      <c r="H113" s="2" t="n">
         <v>-0.067181</v>
       </c>
-      <c r="I113" s="0" t="n">
+      <c r="I113" s="2" t="n">
         <v>0.141579</v>
       </c>
-      <c r="J113" s="0" t="n">
+      <c r="J113" s="2" t="n">
         <v>0.135502</v>
       </c>
-      <c r="K113" s="0" t="n">
+      <c r="K113" s="2" t="n">
         <v>0.0001839715</v>
       </c>
-      <c r="L113" s="0" t="n">
+      <c r="L113" s="2" t="n">
         <v>0.00104493907204487</v>
       </c>
-      <c r="M113" s="0" t="s">
+      <c r="M113" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="N113" s="0" t="n">
+      <c r="N113" s="2" t="n">
         <v>0.382</v>
       </c>
-      <c r="O113" s="0" t="n">
+      <c r="O113" s="2" t="n">
         <v>0.675082217215059</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114" s="2" t="n">
         <v>0.142</v>
       </c>
-      <c r="G114" s="0" t="n">
+      <c r="G114" s="2" t="n">
         <v>0.070908</v>
       </c>
-      <c r="H114" s="0" t="n">
+      <c r="H114" s="2" t="n">
         <v>-0.070908</v>
       </c>
-      <c r="I114" s="0" t="n">
+      <c r="I114" s="2" t="n">
         <v>0.135389</v>
       </c>
-      <c r="J114" s="0" t="n">
+      <c r="J114" s="2" t="n">
         <v>0.144272</v>
       </c>
-      <c r="K114" s="0" t="n">
+      <c r="K114" s="2" t="n">
         <v>0.000189508</v>
       </c>
-      <c r="L114" s="0" t="n">
+      <c r="L114" s="2" t="n">
         <v>0.00106183845740898</v>
       </c>
-      <c r="M114" s="0" t="s">
+      <c r="M114" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="N114" s="0" t="n">
+      <c r="N114" s="2" t="n">
         <v>0.3844</v>
       </c>
-      <c r="O114" s="0" t="n">
+      <c r="O114" s="2" t="n">
         <v>0.570074240779216</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" s="2" t="n">
         <v>0.142</v>
       </c>
-      <c r="G115" s="0" t="n">
+      <c r="G115" s="2" t="n">
         <v>0.058743</v>
       </c>
-      <c r="H115" s="0" t="n">
+      <c r="H115" s="2" t="n">
         <v>-0.058743</v>
       </c>
-      <c r="I115" s="0" t="n">
+      <c r="I115" s="2" t="n">
         <v>0.117342</v>
       </c>
-      <c r="J115" s="0" t="n">
+      <c r="J115" s="2" t="n">
         <v>0.120311</v>
       </c>
-      <c r="K115" s="0" t="n">
+      <c r="K115" s="2" t="n">
         <v>0.0001870973</v>
       </c>
-      <c r="L115" s="0" t="n">
+      <c r="L115" s="2" t="n">
         <v>0.00105631348704974</v>
       </c>
-      <c r="M115" s="0" t="s">
+      <c r="M115" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="N115" s="0" t="n">
+      <c r="N115" s="2" t="n">
         <v>0.1972</v>
       </c>
-      <c r="O115" s="0" t="n">
+      <c r="O115" s="2" t="n">
         <v>0.344958200366363</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116" s="2" t="n">
         <v>0.141</v>
       </c>
-      <c r="G116" s="0" t="n">
+      <c r="G116" s="2" t="n">
         <v>0.070553</v>
       </c>
-      <c r="H116" s="0" t="n">
+      <c r="H116" s="2" t="n">
         <v>-0.070553</v>
       </c>
-      <c r="I116" s="0" t="n">
+      <c r="I116" s="2" t="n">
         <v>0.164819</v>
       </c>
-      <c r="J116" s="0" t="n">
+      <c r="J116" s="2" t="n">
         <v>0.15484</v>
       </c>
-      <c r="K116" s="0" t="n">
+      <c r="K116" s="2" t="n">
         <v>0.0002166122</v>
       </c>
-      <c r="L116" s="0" t="n">
+      <c r="L116" s="2" t="n">
         <v>0.00115089436045198</v>
       </c>
-      <c r="M116" s="0" t="s">
+      <c r="M116" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N116" s="0" t="n">
+      <c r="N116" s="2" t="n">
         <v>0.6348</v>
       </c>
-      <c r="O116" s="0" t="n">
+      <c r="O116" s="2" t="n">
         <v>0.816456342984731</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117" s="2" t="n">
         <v>0.141</v>
       </c>
-      <c r="G117" s="0" t="n">
+      <c r="G117" s="2" t="n">
         <v>0.067593</v>
       </c>
-      <c r="H117" s="0" t="n">
+      <c r="H117" s="2" t="n">
         <v>0.067593</v>
       </c>
-      <c r="I117" s="0" t="n">
+      <c r="I117" s="2" t="n">
         <v>0.146572</v>
       </c>
-      <c r="J117" s="0" t="n">
+      <c r="J117" s="2" t="n">
         <v>0.140332</v>
       </c>
-      <c r="K117" s="0" t="n">
+      <c r="K117" s="2" t="n">
         <v>0.0002245522</v>
       </c>
-      <c r="L117" s="0" t="n">
+      <c r="L117" s="2" t="n">
         <v>0.00117347513079365</v>
       </c>
-      <c r="M117" s="0" t="s">
+      <c r="M117" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="N117" s="0" t="n">
+      <c r="N117" s="2" t="n">
         <v>0.4848</v>
       </c>
-      <c r="O117" s="0" t="n">
+      <c r="O117" s="2" t="n">
         <v>0.832788664668294</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="G118" s="0" t="n">
+      <c r="G118" s="2" t="n">
         <v>0.086678</v>
       </c>
-      <c r="H118" s="0" t="n">
+      <c r="H118" s="2" t="n">
         <v>0.086678</v>
       </c>
-      <c r="I118" s="0" t="n">
+      <c r="I118" s="2" t="n">
         <v>0.145086</v>
       </c>
-      <c r="J118" s="0" t="n">
+      <c r="J118" s="2" t="n">
         <v>0.183353</v>
       </c>
-      <c r="K118" s="0" t="n">
+      <c r="K118" s="2" t="n">
         <v>0.0002504912</v>
       </c>
-      <c r="L118" s="0" t="n">
+      <c r="L118" s="2" t="n">
         <v>0.00125171699301973</v>
       </c>
-      <c r="M118" s="0" t="s">
+      <c r="M118" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N118" s="0" t="n">
+      <c r="N118" s="2" t="n">
         <v>0.1628</v>
       </c>
-      <c r="O118" s="0" t="n">
+      <c r="O118" s="2" t="n">
         <v>0.333316906261894</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="G119" s="0" t="n">
+      <c r="G119" s="2" t="n">
         <v>0.070899</v>
       </c>
-      <c r="H119" s="0" t="n">
+      <c r="H119" s="2" t="n">
         <v>0.070899</v>
       </c>
-      <c r="I119" s="0" t="n">
+      <c r="I119" s="2" t="n">
         <v>0.135187</v>
       </c>
-      <c r="J119" s="0" t="n">
+      <c r="J119" s="2" t="n">
         <v>0.153279</v>
       </c>
-      <c r="K119" s="0" t="n">
+      <c r="K119" s="2" t="n">
         <v>0.0002333212</v>
       </c>
-      <c r="L119" s="0" t="n">
+      <c r="L119" s="2" t="n">
         <v>0.00120372528181818</v>
       </c>
-      <c r="M119" s="0" t="s">
+      <c r="M119" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="N119" s="0" t="n">
+      <c r="N119" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O119" s="0" t="n">
+      <c r="O119" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="G120" s="0" t="n">
+      <c r="G120" s="2" t="n">
         <v>0.066859</v>
       </c>
-      <c r="H120" s="0" t="n">
+      <c r="H120" s="2" t="n">
         <v>0.066859</v>
       </c>
-      <c r="I120" s="0" t="n">
+      <c r="I120" s="2" t="n">
         <v>0.130397</v>
       </c>
-      <c r="J120" s="0" t="n">
+      <c r="J120" s="2" t="n">
         <v>0.147129</v>
       </c>
-      <c r="K120" s="0" t="n">
+      <c r="K120" s="2" t="n">
         <v>0.000228507</v>
       </c>
-      <c r="L120" s="0" t="n">
+      <c r="L120" s="2" t="n">
         <v>0.00118476220716535</v>
       </c>
-      <c r="M120" s="0" t="s">
+      <c r="M120" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N120" s="0" t="n">
+      <c r="N120" s="2" t="n">
         <v>0.3348</v>
       </c>
-      <c r="O120" s="0" t="n">
+      <c r="O120" s="2" t="n">
         <v>0.632639676277105</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" s="2" t="n">
         <v>0.139</v>
       </c>
-      <c r="G121" s="0" t="n">
+      <c r="G121" s="2" t="n">
         <v>0.070195</v>
       </c>
-      <c r="H121" s="0" t="n">
+      <c r="H121" s="2" t="n">
         <v>-0.070195</v>
       </c>
-      <c r="I121" s="0" t="n">
+      <c r="I121" s="2" t="n">
         <v>0.113589</v>
       </c>
-      <c r="J121" s="0" t="n">
+      <c r="J121" s="2" t="n">
         <v>0.146944</v>
       </c>
-      <c r="K121" s="0" t="n">
+      <c r="K121" s="2" t="n">
         <v>0.0002592726</v>
       </c>
-      <c r="L121" s="0" t="n">
+      <c r="L121" s="2" t="n">
         <v>0.00127613701424332</v>
       </c>
-      <c r="M121" s="0" t="s">
+      <c r="M121" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="N121" s="0" t="n">
+      <c r="N121" s="2" t="n">
         <v>0.4988</v>
       </c>
-      <c r="O121" s="0" t="n">
+      <c r="O121" s="2" t="n">
         <v>0.92496192354064</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122" s="2" t="n">
         <v>0.138</v>
       </c>
-      <c r="G122" s="0" t="n">
+      <c r="G122" s="2" t="n">
         <v>0.070821</v>
       </c>
-      <c r="H122" s="0" t="n">
+      <c r="H122" s="2" t="n">
         <v>-0.070821</v>
       </c>
-      <c r="I122" s="0" t="n">
+      <c r="I122" s="2" t="n">
         <v>0.121293</v>
       </c>
-      <c r="J122" s="0" t="n">
+      <c r="J122" s="2" t="n">
         <v>0.151868</v>
       </c>
-      <c r="K122" s="0" t="n">
+      <c r="K122" s="2" t="n">
         <v>0.000309509</v>
       </c>
-      <c r="L122" s="0" t="n">
+      <c r="L122" s="2" t="n">
         <v>0.00139977575410959</v>
       </c>
-      <c r="M122" s="0" t="s">
+      <c r="M122" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N122" s="0" t="n">
+      <c r="N122" s="2" t="n">
         <v>0.7188</v>
       </c>
-      <c r="O122" s="0" t="n">
+      <c r="O122" s="2" t="n">
         <v>1.29509017446663</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123" s="2" t="n">
         <v>0.138</v>
       </c>
-      <c r="G123" s="0" t="n">
+      <c r="G123" s="2" t="n">
         <v>0.069674</v>
       </c>
-      <c r="H123" s="0" t="n">
+      <c r="H123" s="2" t="n">
         <v>0.069674</v>
       </c>
-      <c r="I123" s="0" t="n">
+      <c r="I123" s="2" t="n">
         <v>0.151437</v>
       </c>
-      <c r="J123" s="0" t="n">
+      <c r="J123" s="2" t="n">
         <v>0.14309</v>
       </c>
-      <c r="K123" s="0" t="n">
+      <c r="K123" s="2" t="n">
         <v>0.0003081583</v>
       </c>
-      <c r="L123" s="0" t="n">
+      <c r="L123" s="2" t="n">
         <v>0.00139807449269469</v>
       </c>
-      <c r="M123" s="0" t="s">
+      <c r="M123" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="N123" s="0" t="n">
+      <c r="N123" s="2" t="n">
         <v>0.2144</v>
       </c>
-      <c r="O123" s="0" t="n">
+      <c r="O123" s="2" t="n">
         <v>0.501326879391082</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F124" s="0" t="n">
+      <c r="F124" s="2" t="n">
         <v>0.138</v>
       </c>
-      <c r="G124" s="0" t="n">
+      <c r="G124" s="2" t="n">
         <v>0.061121</v>
       </c>
-      <c r="H124" s="0" t="n">
+      <c r="H124" s="2" t="n">
         <v>-0.061121</v>
       </c>
-      <c r="I124" s="0" t="n">
+      <c r="I124" s="2" t="n">
         <v>0.128877</v>
       </c>
-      <c r="J124" s="0" t="n">
+      <c r="J124" s="2" t="n">
         <v>0.124138</v>
       </c>
-      <c r="K124" s="0" t="n">
+      <c r="K124" s="2" t="n">
         <v>0.0003043493</v>
       </c>
-      <c r="L124" s="0" t="n">
+      <c r="L124" s="2" t="n">
         <v>0.00138652694941177</v>
       </c>
-      <c r="M124" s="0" t="s">
+      <c r="M124" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N124" s="0" t="n">
+      <c r="N124" s="2" t="n">
         <v>0.3524</v>
       </c>
-      <c r="O124" s="0" t="n">
+      <c r="O124" s="2" t="n">
         <v>0.457395059002609</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E125" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125" s="2" t="n">
         <v>0.137</v>
       </c>
-      <c r="G125" s="0" t="n">
+      <c r="G125" s="2" t="n">
         <v>0.073116</v>
       </c>
-      <c r="H125" s="0" t="n">
+      <c r="H125" s="2" t="n">
         <v>0.073116</v>
       </c>
-      <c r="I125" s="0" t="n">
+      <c r="I125" s="2" t="n">
         <v>0.13732</v>
       </c>
-      <c r="J125" s="0" t="n">
+      <c r="J125" s="2" t="n">
         <v>0.169283</v>
       </c>
-      <c r="K125" s="0" t="n">
+      <c r="K125" s="2" t="n">
         <v>0.0002971717</v>
       </c>
-      <c r="L125" s="0" t="n">
+      <c r="L125" s="2" t="n">
         <v>0.00137282898322807</v>
       </c>
-      <c r="M125" s="0" t="s">
+      <c r="M125" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N125" s="0" t="n">
+      <c r="N125" s="2" t="n">
         <v>0.1804</v>
       </c>
-      <c r="O125" s="0" t="n">
+      <c r="O125" s="2" t="n">
         <v>0.297152889940515</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="E126" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126" s="2" t="n">
         <v>0.137</v>
       </c>
-      <c r="G126" s="0" t="n">
+      <c r="G126" s="2" t="n">
         <v>0.07297</v>
       </c>
-      <c r="H126" s="0" t="n">
+      <c r="H126" s="2" t="n">
         <v>-0.07297</v>
       </c>
-      <c r="I126" s="0" t="n">
+      <c r="I126" s="2" t="n">
         <v>0.120345</v>
       </c>
-      <c r="J126" s="0" t="n">
+      <c r="J126" s="2" t="n">
         <v>0.157741</v>
       </c>
-      <c r="K126" s="0" t="n">
+      <c r="K126" s="2" t="n">
         <v>0.000342043</v>
       </c>
-      <c r="L126" s="0" t="n">
+      <c r="L126" s="2" t="n">
         <v>0.00150149590086609</v>
       </c>
-      <c r="M126" s="0" t="s">
+      <c r="M126" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="N126" s="0" t="n">
+      <c r="N126" s="2" t="n">
         <v>0.298</v>
       </c>
-      <c r="O126" s="0" t="n">
+      <c r="O126" s="2" t="n">
         <v>1.06139530807329</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127" s="2" t="n">
         <v>0.137</v>
       </c>
-      <c r="G127" s="0" t="n">
+      <c r="G127" s="2" t="n">
         <v>0.065719</v>
       </c>
-      <c r="H127" s="0" t="n">
+      <c r="H127" s="2" t="n">
         <v>-0.065719</v>
       </c>
-      <c r="I127" s="0" t="n">
+      <c r="I127" s="2" t="n">
         <v>0.114425</v>
       </c>
-      <c r="J127" s="0" t="n">
+      <c r="J127" s="2" t="n">
         <v>0.146722</v>
       </c>
-      <c r="K127" s="0" t="n">
+      <c r="K127" s="2" t="n">
         <v>0.0003118891</v>
       </c>
-      <c r="L127" s="0" t="n">
+      <c r="L127" s="2" t="n">
         <v>0.00140435427175103</v>
       </c>
-      <c r="M127" s="0" t="s">
+      <c r="M127" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="N127" s="0" t="n">
+      <c r="N127" s="2" t="n">
         <v>0.3608</v>
       </c>
-      <c r="O127" s="0" t="n">
+      <c r="O127" s="2" t="n">
         <v>0.882718165667842</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128" s="2" t="n">
         <v>0.137</v>
       </c>
-      <c r="G128" s="0" t="n">
+      <c r="G128" s="2" t="n">
         <v>0.056352</v>
       </c>
-      <c r="H128" s="0" t="n">
+      <c r="H128" s="2" t="n">
         <v>-0.056352</v>
       </c>
-      <c r="I128" s="0" t="n">
+      <c r="I128" s="2" t="n">
         <v>0.122287</v>
       </c>
-      <c r="J128" s="0" t="n">
+      <c r="J128" s="2" t="n">
         <v>0.122893</v>
       </c>
-      <c r="K128" s="0" t="n">
+      <c r="K128" s="2" t="n">
         <v>0.0003220073</v>
       </c>
-      <c r="L128" s="0" t="n">
+      <c r="L128" s="2" t="n">
         <v>0.0014321789889264</v>
       </c>
-      <c r="M128" s="0" t="s">
+      <c r="M128" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="N128" s="0" t="n">
+      <c r="N128" s="2" t="n">
         <v>1.1708</v>
       </c>
-      <c r="O128" s="0" t="n">
+      <c r="O128" s="2" t="n">
         <v>1.92597802687362</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129" s="2" t="n">
         <v>0.136</v>
       </c>
-      <c r="G129" s="0" t="n">
+      <c r="G129" s="2" t="n">
         <v>0.080537</v>
       </c>
-      <c r="H129" s="0" t="n">
+      <c r="H129" s="2" t="n">
         <v>-0.080537</v>
       </c>
-      <c r="I129" s="0" t="n">
+      <c r="I129" s="2" t="n">
         <v>0.194254</v>
       </c>
-      <c r="J129" s="0" t="n">
+      <c r="J129" s="2" t="n">
         <v>0.165343</v>
       </c>
-      <c r="K129" s="0" t="n">
+      <c r="K129" s="2" t="n">
         <v>0.0001497097</v>
       </c>
-      <c r="L129" s="0" t="n">
+      <c r="L129" s="2" t="n">
         <v>0.000932392578145695</v>
       </c>
-      <c r="M129" s="0" t="s">
+      <c r="M129" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="N129" s="0" t="n">
+      <c r="N129" s="2" t="n">
         <v>0.638</v>
       </c>
-      <c r="O129" s="0" t="n">
+      <c r="O129" s="2" t="n">
         <v>0.796858833169339</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130" s="2" t="n">
         <v>0.136</v>
       </c>
-      <c r="G130" s="0" t="n">
+      <c r="G130" s="2" t="n">
         <v>0.072267</v>
       </c>
-      <c r="H130" s="0" t="n">
+      <c r="H130" s="2" t="n">
         <v>-0.072267</v>
       </c>
-      <c r="I130" s="0" t="n">
+      <c r="I130" s="2" t="n">
         <v>0.142246</v>
       </c>
-      <c r="J130" s="0" t="n">
+      <c r="J130" s="2" t="n">
         <v>0.173638</v>
       </c>
-      <c r="K130" s="0" t="n">
+      <c r="K130" s="2" t="n">
         <v>0.000352417</v>
       </c>
-      <c r="L130" s="0" t="n">
+      <c r="L130" s="2" t="n">
         <v>0.00152679017273325</v>
       </c>
-      <c r="M130" s="0" t="s">
+      <c r="M130" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N130" s="0" t="n">
+      <c r="N130" s="2" t="n">
         <v>1.0132</v>
       </c>
-      <c r="O130" s="0" t="n">
+      <c r="O130" s="2" t="n">
         <v>1.31518126507337</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131" s="2" t="n">
         <v>0.136</v>
       </c>
-      <c r="G131" s="0" t="n">
+      <c r="G131" s="2" t="n">
         <v>0.064864</v>
       </c>
-      <c r="H131" s="0" t="n">
+      <c r="H131" s="2" t="n">
         <v>-0.064864</v>
       </c>
-      <c r="I131" s="0" t="n">
+      <c r="I131" s="2" t="n">
         <v>0.078387</v>
       </c>
-      <c r="J131" s="0" t="n">
+      <c r="J131" s="2" t="n">
         <v>0.131618</v>
       </c>
-      <c r="K131" s="0" t="n">
+      <c r="K131" s="2" t="n">
         <v>0.0003665862</v>
       </c>
-      <c r="L131" s="0" t="n">
+      <c r="L131" s="2" t="n">
         <v>0.00156500451011673</v>
       </c>
-      <c r="M131" s="0" t="s">
+      <c r="M131" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N131" s="0" t="n">
+      <c r="N131" s="2" t="n">
         <v>0.842</v>
       </c>
-      <c r="O131" s="0" t="n">
+      <c r="O131" s="2" t="n">
         <v>0.904274294669488</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F132" s="0" t="n">
+      <c r="F132" s="2" t="n">
         <v>0.135</v>
       </c>
-      <c r="G132" s="0" t="n">
+      <c r="G132" s="2" t="n">
         <v>0.072992</v>
       </c>
-      <c r="H132" s="0" t="n">
+      <c r="H132" s="2" t="n">
         <v>-0.072992</v>
       </c>
-      <c r="I132" s="0" t="n">
+      <c r="I132" s="2" t="n">
         <v>0.138972</v>
       </c>
-      <c r="J132" s="0" t="n">
+      <c r="J132" s="2" t="n">
         <v>0.165851</v>
       </c>
-      <c r="K132" s="0" t="n">
+      <c r="K132" s="2" t="n">
         <v>0.0004123858</v>
       </c>
-      <c r="L132" s="0" t="n">
+      <c r="L132" s="2" t="n">
         <v>0.0016665044330264</v>
       </c>
-      <c r="M132" s="0" t="s">
+      <c r="M132" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N132" s="0" t="n">
+      <c r="N132" s="2" t="n">
         <v>0.2924</v>
       </c>
-      <c r="O132" s="0" t="n">
+      <c r="O132" s="2" t="n">
         <v>0.546993820806049</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F133" s="0" t="n">
+      <c r="F133" s="2" t="n">
         <v>0.135</v>
       </c>
-      <c r="G133" s="0" t="n">
+      <c r="G133" s="2" t="n">
         <v>0.067074</v>
       </c>
-      <c r="H133" s="0" t="n">
+      <c r="H133" s="2" t="n">
         <v>-0.067074</v>
       </c>
-      <c r="I133" s="0" t="n">
+      <c r="I133" s="2" t="n">
         <v>0.127768</v>
       </c>
-      <c r="J133" s="0" t="n">
+      <c r="J133" s="2" t="n">
         <v>0.106936</v>
       </c>
-      <c r="K133" s="0" t="n">
+      <c r="K133" s="2" t="n">
         <v>0.0004091145</v>
       </c>
-      <c r="L133" s="0" t="n">
+      <c r="L133" s="2" t="n">
         <v>0.00166246960092593</v>
       </c>
-      <c r="M133" s="0" t="s">
+      <c r="M133" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N133" s="0" t="n">
+      <c r="N133" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O133" s="0" t="n">
+      <c r="O133" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E134" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F134" s="0" t="n">
+      <c r="F134" s="2" t="n">
         <v>0.135</v>
       </c>
-      <c r="G134" s="0" t="n">
+      <c r="G134" s="2" t="n">
         <v>0.062723</v>
       </c>
-      <c r="H134" s="0" t="n">
+      <c r="H134" s="2" t="n">
         <v>-0.062723</v>
       </c>
-      <c r="I134" s="0" t="n">
+      <c r="I134" s="2" t="n">
         <v>0.120282</v>
       </c>
-      <c r="J134" s="0" t="n">
+      <c r="J134" s="2" t="n">
         <v>0.141044</v>
       </c>
-      <c r="K134" s="0" t="n">
+      <c r="K134" s="2" t="n">
         <v>0.0003957915</v>
       </c>
-      <c r="L134" s="0" t="n">
+      <c r="L134" s="2" t="n">
         <v>0.00163764641389064</v>
       </c>
-      <c r="M134" s="0" t="s">
+      <c r="M134" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="N134" s="0" t="n">
+      <c r="N134" s="2" t="n">
         <v>0.6968</v>
       </c>
-      <c r="O134" s="0" t="n">
+      <c r="O134" s="2" t="n">
         <v>1.06209498633597</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E135" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F135" s="0" t="n">
+      <c r="F135" s="2" t="n">
         <v>0.135</v>
       </c>
-      <c r="G135" s="0" t="n">
+      <c r="G135" s="2" t="n">
         <v>0.058024</v>
       </c>
-      <c r="H135" s="0" t="n">
+      <c r="H135" s="2" t="n">
         <v>-0.058024</v>
       </c>
-      <c r="I135" s="0" t="n">
+      <c r="I135" s="2" t="n">
         <v>0.115415</v>
       </c>
-      <c r="J135" s="0" t="n">
+      <c r="J135" s="2" t="n">
         <v>0.124556</v>
       </c>
-      <c r="K135" s="0" t="n">
+      <c r="K135" s="2" t="n">
         <v>0.0003845827</v>
       </c>
-      <c r="L135" s="0" t="n">
+      <c r="L135" s="2" t="n">
         <v>0.00161033488289892</v>
       </c>
-      <c r="M135" s="0" t="s">
+      <c r="M135" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="N135" s="0" t="n">
+      <c r="N135" s="2" t="n">
         <v>0.2444</v>
       </c>
-      <c r="O135" s="0" t="n">
+      <c r="O135" s="2" t="n">
         <v>0.50318251161979</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E136" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136" s="2" t="n">
         <v>0.134</v>
       </c>
-      <c r="G136" s="0" t="n">
+      <c r="G136" s="2" t="n">
         <v>0.096792</v>
       </c>
-      <c r="H136" s="0" t="n">
+      <c r="H136" s="2" t="n">
         <v>-0.096792</v>
       </c>
-      <c r="I136" s="0" t="n">
+      <c r="I136" s="2" t="n">
         <v>0.182935</v>
       </c>
-      <c r="J136" s="0" t="n">
+      <c r="J136" s="2" t="n">
         <v>0.210285</v>
       </c>
-      <c r="K136" s="0" t="n">
+      <c r="K136" s="2" t="n">
         <v>0.000461428</v>
       </c>
-      <c r="L136" s="0" t="n">
+      <c r="L136" s="2" t="n">
         <v>0.0017753246779661</v>
       </c>
-      <c r="M136" s="0" t="s">
+      <c r="M136" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N136" s="0" t="n">
+      <c r="N136" s="2" t="n">
         <v>0.4856</v>
       </c>
-      <c r="O136" s="0" t="n">
+      <c r="O136" s="2" t="n">
         <v>0.792949330033137</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E137" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F137" s="0" t="n">
+      <c r="F137" s="2" t="n">
         <v>0.133</v>
       </c>
-      <c r="G137" s="0" t="n">
+      <c r="G137" s="2" t="n">
         <v>0.07102</v>
       </c>
-      <c r="H137" s="0" t="n">
+      <c r="H137" s="2" t="n">
         <v>0.07102</v>
       </c>
-      <c r="I137" s="0" t="n">
+      <c r="I137" s="2" t="n">
         <v>0.161372</v>
       </c>
-      <c r="J137" s="0" t="n">
+      <c r="J137" s="2" t="n">
         <v>0.138873</v>
       </c>
-      <c r="K137" s="0" t="n">
+      <c r="K137" s="2" t="n">
         <v>0.0004907648</v>
       </c>
-      <c r="L137" s="0" t="n">
+      <c r="L137" s="2" t="n">
         <v>0.00183562765818182</v>
       </c>
-      <c r="M137" s="0" t="s">
+      <c r="M137" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="N137" s="0" t="n">
+      <c r="N137" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O137" s="0" t="n">
+      <c r="O137" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F138" s="0" t="n">
+      <c r="F138" s="2" t="n">
         <v>0.133</v>
       </c>
-      <c r="G138" s="0" t="n">
+      <c r="G138" s="2" t="n">
         <v>0.054446</v>
       </c>
-      <c r="H138" s="0" t="n">
+      <c r="H138" s="2" t="n">
         <v>-0.054446</v>
       </c>
-      <c r="I138" s="0" t="n">
+      <c r="I138" s="2" t="n">
         <v>0.113232</v>
       </c>
-      <c r="J138" s="0" t="n">
+      <c r="J138" s="2" t="n">
         <v>0.124195</v>
       </c>
-      <c r="K138" s="0" t="n">
+      <c r="K138" s="2" t="n">
         <v>0.0004660967</v>
       </c>
-      <c r="L138" s="0" t="n">
+      <c r="L138" s="2" t="n">
         <v>0.00178464365423926</v>
       </c>
-      <c r="M138" s="0" t="s">
+      <c r="M138" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="N138" s="0" t="n">
+      <c r="N138" s="2" t="n">
         <v>0.1132</v>
       </c>
-      <c r="O138" s="0" t="n">
+      <c r="O138" s="2" t="n">
         <v>0.232615046804801</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="E139" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F139" s="0" t="n">
+      <c r="F139" s="2" t="n">
         <v>0.132</v>
       </c>
-      <c r="G139" s="0" t="n">
+      <c r="G139" s="2" t="n">
         <v>0.056043</v>
       </c>
-      <c r="H139" s="0" t="n">
+      <c r="H139" s="2" t="n">
         <v>0.056043</v>
       </c>
-      <c r="I139" s="0" t="n">
+      <c r="I139" s="2" t="n">
         <v>0.119813</v>
       </c>
-      <c r="J139" s="0" t="n">
+      <c r="J139" s="2" t="n">
         <v>0.123454</v>
       </c>
-      <c r="K139" s="0" t="n">
+      <c r="K139" s="2" t="n">
         <v>0.0005616181</v>
       </c>
-      <c r="L139" s="0" t="n">
+      <c r="L139" s="2" t="n">
         <v>0.00198131401516613</v>
       </c>
-      <c r="M139" s="0" t="s">
+      <c r="M139" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N139" s="0" t="n">
+      <c r="N139" s="2" t="n">
         <v>0.2316</v>
       </c>
-      <c r="O139" s="0" t="n">
+      <c r="O139" s="2" t="n">
         <v>0.356018875904073</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140" s="2" t="n">
         <v>0.132</v>
       </c>
-      <c r="G140" s="0" t="n">
+      <c r="G140" s="2" t="n">
         <v>0.055783</v>
       </c>
-      <c r="H140" s="0" t="n">
+      <c r="H140" s="2" t="n">
         <v>-0.055783</v>
       </c>
-      <c r="I140" s="0" t="n">
+      <c r="I140" s="2" t="n">
         <v>0.129933</v>
       </c>
-      <c r="J140" s="0" t="n">
+      <c r="J140" s="2" t="n">
         <v>0.133383</v>
       </c>
-      <c r="K140" s="0" t="n">
+      <c r="K140" s="2" t="n">
         <v>0.0005583582</v>
       </c>
-      <c r="L140" s="0" t="n">
+      <c r="L140" s="2" t="n">
         <v>0.00197696757845245</v>
       </c>
-      <c r="M140" s="0" t="s">
+      <c r="M140" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="N140" s="0" t="n">
+      <c r="N140" s="2" t="n">
         <v>0.5024</v>
       </c>
-      <c r="O140" s="0" t="n">
+      <c r="O140" s="2" t="n">
         <v>0.761626049974658</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E141" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F141" s="0" t="n">
+      <c r="F141" s="2" t="n">
         <v>0.131</v>
       </c>
-      <c r="G141" s="0" t="n">
+      <c r="G141" s="2" t="n">
         <v>0.069857</v>
       </c>
-      <c r="H141" s="0" t="n">
+      <c r="H141" s="2" t="n">
         <v>0.069857</v>
       </c>
-      <c r="I141" s="0" t="n">
+      <c r="I141" s="2" t="n">
         <v>0.157078</v>
       </c>
-      <c r="J141" s="0" t="n">
+      <c r="J141" s="2" t="n">
         <v>0.159138</v>
       </c>
-      <c r="K141" s="0" t="n">
+      <c r="K141" s="2" t="n">
         <v>0.0005804058</v>
       </c>
-      <c r="L141" s="0" t="n">
+      <c r="L141" s="2" t="n">
         <v>0.00200778317467157</v>
       </c>
-      <c r="M141" s="0" t="s">
+      <c r="M141" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="N141" s="0" t="n">
+      <c r="N141" s="2" t="n">
         <v>0.5028</v>
       </c>
-      <c r="O141" s="0" t="n">
+      <c r="O141" s="2" t="n">
         <v>0.811307685160199</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F142" s="0" t="n">
+      <c r="F142" s="2" t="n">
         <v>0.131</v>
       </c>
-      <c r="G142" s="0" t="n">
+      <c r="G142" s="2" t="n">
         <v>0.056621</v>
       </c>
-      <c r="H142" s="0" t="n">
+      <c r="H142" s="2" t="n">
         <v>0.056621</v>
       </c>
-      <c r="I142" s="0" t="n">
+      <c r="I142" s="2" t="n">
         <v>0.144377</v>
       </c>
-      <c r="J142" s="0" t="n">
+      <c r="J142" s="2" t="n">
         <v>0.128425</v>
       </c>
-      <c r="K142" s="0" t="n">
+      <c r="K142" s="2" t="n">
         <v>0.0005965642</v>
       </c>
-      <c r="L142" s="0" t="n">
+      <c r="L142" s="2" t="n">
         <v>0.00204306686246106</v>
       </c>
-      <c r="M142" s="0" t="s">
+      <c r="M142" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="N142" s="0" t="n">
+      <c r="N142" s="2" t="n">
         <v>0.7268</v>
       </c>
-      <c r="O142" s="0" t="n">
+      <c r="O142" s="2" t="n">
         <v>0.885806841247007</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F143" s="0" t="n">
+      <c r="F143" s="2" t="n">
         <v>0.13</v>
       </c>
-      <c r="G143" s="0" t="n">
+      <c r="G143" s="2" t="n">
         <v>0.087733</v>
       </c>
-      <c r="H143" s="0" t="n">
+      <c r="H143" s="2" t="n">
         <v>-0.087733</v>
       </c>
-      <c r="I143" s="0" t="n">
+      <c r="I143" s="2" t="n">
         <v>0.180612</v>
       </c>
-      <c r="J143" s="0" t="n">
+      <c r="J143" s="2" t="n">
         <v>0.187328</v>
       </c>
-      <c r="K143" s="0" t="n">
+      <c r="K143" s="2" t="n">
         <v>0.0006739825</v>
       </c>
-      <c r="L143" s="0" t="n">
+      <c r="L143" s="2" t="n">
         <v>0.00219043118914117</v>
       </c>
-      <c r="M143" s="0" t="s">
+      <c r="M143" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="N143" s="0" t="n">
+      <c r="N143" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="O143" s="0" t="n">
+      <c r="O143" s="2" t="n">
         <v>0.643453184000204</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F144" s="0" t="n">
+      <c r="F144" s="2" t="n">
         <v>0.13</v>
       </c>
-      <c r="G144" s="0" t="n">
+      <c r="G144" s="2" t="n">
         <v>0.067433</v>
       </c>
-      <c r="H144" s="0" t="n">
+      <c r="H144" s="2" t="n">
         <v>-0.067433</v>
       </c>
-      <c r="I144" s="0" t="n">
+      <c r="I144" s="2" t="n">
         <v>0.133237</v>
       </c>
-      <c r="J144" s="0" t="n">
+      <c r="J144" s="2" t="n">
         <v>0.146065</v>
       </c>
-      <c r="K144" s="0" t="n">
+      <c r="K144" s="2" t="n">
         <v>0.000642001</v>
       </c>
-      <c r="L144" s="0" t="n">
+      <c r="L144" s="2" t="n">
         <v>0.00213018779385081</v>
       </c>
-      <c r="M144" s="0" t="s">
+      <c r="M144" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="N144" s="0" t="n">
+      <c r="N144" s="2" t="n">
         <v>0.3068</v>
       </c>
-      <c r="O144" s="0" t="n">
+      <c r="O144" s="2" t="n">
         <v>0.574245383089843</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="E145" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145" s="2" t="n">
         <v>0.13</v>
       </c>
-      <c r="G145" s="0" t="n">
+      <c r="G145" s="2" t="n">
         <v>0.05821</v>
       </c>
-      <c r="H145" s="0" t="n">
+      <c r="H145" s="2" t="n">
         <v>0.05821</v>
       </c>
-      <c r="I145" s="0" t="n">
+      <c r="I145" s="2" t="n">
         <v>0.127516</v>
       </c>
-      <c r="J145" s="0" t="n">
+      <c r="J145" s="2" t="n">
         <v>0.112411</v>
       </c>
-      <c r="K145" s="0" t="n">
+      <c r="K145" s="2" t="n">
         <v>0.0006331448</v>
       </c>
-      <c r="L145" s="0" t="n">
+      <c r="L145" s="2" t="n">
         <v>0.00211144489280648</v>
       </c>
-      <c r="M145" s="0" t="s">
+      <c r="M145" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N145" s="0" t="n">
+      <c r="N145" s="2" t="n">
         <v>0.1408</v>
       </c>
-      <c r="O145" s="0" t="n">
+      <c r="O145" s="2" t="n">
         <v>0.376806793993951</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E146" s="0" t="s">
+      <c r="E146" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F146" s="0" t="n">
+      <c r="F146" s="2" t="n">
         <v>0.129</v>
       </c>
-      <c r="G146" s="0" t="n">
+      <c r="G146" s="2" t="n">
         <v>0.077724</v>
       </c>
-      <c r="H146" s="0" t="n">
+      <c r="H146" s="2" t="n">
         <v>0.077724</v>
       </c>
-      <c r="I146" s="0" t="n">
+      <c r="I146" s="2" t="n">
         <v>0.148907</v>
       </c>
-      <c r="J146" s="0" t="n">
+      <c r="J146" s="2" t="n">
         <v>0.164954</v>
       </c>
-      <c r="K146" s="0" t="n">
+      <c r="K146" s="2" t="n">
         <v>0.0007083009</v>
       </c>
-      <c r="L146" s="0" t="n">
+      <c r="L146" s="2" t="n">
         <v>0.00224710593961446</v>
       </c>
-      <c r="M146" s="0" t="s">
+      <c r="M146" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="N146" s="0" t="n">
+      <c r="N146" s="2" t="n">
         <v>0.1604</v>
       </c>
-      <c r="O146" s="0" t="n">
+      <c r="O146" s="2" t="n">
         <v>0.302938673661849</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E147" s="0" t="s">
+      <c r="E147" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F147" s="0" t="n">
+      <c r="F147" s="2" t="n">
         <v>0.129</v>
       </c>
-      <c r="G147" s="0" t="n">
+      <c r="G147" s="2" t="n">
         <v>0.071374</v>
       </c>
-      <c r="H147" s="0" t="n">
+      <c r="H147" s="2" t="n">
         <v>0.071374</v>
       </c>
-      <c r="I147" s="0" t="n">
+      <c r="I147" s="2" t="n">
         <v>0.180851</v>
       </c>
-      <c r="J147" s="0" t="n">
+      <c r="J147" s="2" t="n">
         <v>0.152571</v>
       </c>
-      <c r="K147" s="0" t="n">
+      <c r="K147" s="2" t="n">
         <v>0.0007267279</v>
       </c>
-      <c r="L147" s="0" t="n">
+      <c r="L147" s="2" t="n">
         <v>0.00228485932893983</v>
       </c>
-      <c r="M147" s="0" t="s">
+      <c r="M147" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="N147" s="0" t="n">
+      <c r="N147" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O147" s="0" t="n">
+      <c r="O147" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E148" s="0" t="s">
+      <c r="E148" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F148" s="0" t="n">
+      <c r="F148" s="2" t="n">
         <v>0.128</v>
       </c>
-      <c r="G148" s="0" t="n">
+      <c r="G148" s="2" t="n">
         <v>0.086726</v>
       </c>
-      <c r="H148" s="0" t="n">
+      <c r="H148" s="2" t="n">
         <v>0.086726</v>
       </c>
-      <c r="I148" s="0" t="n">
+      <c r="I148" s="2" t="n">
         <v>0.184173</v>
       </c>
-      <c r="J148" s="0" t="n">
+      <c r="J148" s="2" t="n">
         <v>0.184291</v>
       </c>
-      <c r="K148" s="0" t="n">
+      <c r="K148" s="2" t="n">
         <v>0.0007688561</v>
       </c>
-      <c r="L148" s="0" t="n">
+      <c r="L148" s="2" t="n">
         <v>0.00236350149057836</v>
       </c>
-      <c r="M148" s="0" t="s">
+      <c r="M148" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N148" s="0" t="n">
+      <c r="N148" s="2" t="n">
         <v>0.5656</v>
       </c>
-      <c r="O148" s="0" t="n">
+      <c r="O148" s="2" t="n">
         <v>0.778424460047345</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E149" s="0" t="s">
+      <c r="E149" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149" s="2" t="n">
         <v>0.128</v>
       </c>
-      <c r="G149" s="0" t="n">
+      <c r="G149" s="2" t="n">
         <v>0.062708</v>
       </c>
-      <c r="H149" s="0" t="n">
+      <c r="H149" s="2" t="n">
         <v>-0.062708</v>
       </c>
-      <c r="I149" s="0" t="n">
+      <c r="I149" s="2" t="n">
         <v>0.113629</v>
       </c>
-      <c r="J149" s="0" t="n">
+      <c r="J149" s="2" t="n">
         <v>0.123346</v>
       </c>
-      <c r="K149" s="0" t="n">
+      <c r="K149" s="2" t="n">
         <v>0.000766676</v>
       </c>
-      <c r="L149" s="0" t="n">
+      <c r="L149" s="2" t="n">
         <v>0.00236218629186536</v>
       </c>
-      <c r="M149" s="0" t="s">
+      <c r="M149" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N149" s="0" t="n">
+      <c r="N149" s="2" t="n">
         <v>0.4072</v>
       </c>
-      <c r="O149" s="0" t="n">
+      <c r="O149" s="2" t="n">
         <v>0.686821781832813</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E150" s="0" t="s">
+      <c r="E150" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F150" s="0" t="n">
+      <c r="F150" s="2" t="n">
         <v>0.128</v>
       </c>
-      <c r="G150" s="0" t="n">
+      <c r="G150" s="2" t="n">
         <v>0.05714</v>
       </c>
-      <c r="H150" s="0" t="n">
+      <c r="H150" s="2" t="n">
         <v>-0.05714</v>
       </c>
-      <c r="I150" s="0" t="n">
+      <c r="I150" s="2" t="n">
         <v>0.128493</v>
       </c>
-      <c r="J150" s="0" t="n">
+      <c r="J150" s="2" t="n">
         <v>0.130946</v>
       </c>
-      <c r="K150" s="0" t="n">
+      <c r="K150" s="2" t="n">
         <v>0.0006721127</v>
       </c>
-      <c r="L150" s="0" t="n">
+      <c r="L150" s="2" t="n">
         <v>0.00218710721903114</v>
       </c>
-      <c r="M150" s="0" t="s">
+      <c r="M150" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="N150" s="0" t="n">
+      <c r="N150" s="2" t="n">
         <v>0.1216</v>
       </c>
-      <c r="O150" s="0" t="n">
+      <c r="O150" s="2" t="n">
         <v>0.273037433331036</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E151" s="0" t="s">
+      <c r="E151" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F151" s="0" t="n">
+      <c r="F151" s="2" t="n">
         <v>0.126</v>
       </c>
-      <c r="G151" s="0" t="n">
+      <c r="G151" s="2" t="n">
         <v>0.079975</v>
       </c>
-      <c r="H151" s="0" t="n">
+      <c r="H151" s="2" t="n">
         <v>-0.079975</v>
       </c>
-      <c r="I151" s="0" t="n">
+      <c r="I151" s="2" t="n">
         <v>0.169167</v>
       </c>
-      <c r="J151" s="0" t="n">
+      <c r="J151" s="2" t="n">
         <v>0.182954</v>
       </c>
-      <c r="K151" s="0" t="n">
+      <c r="K151" s="2" t="n">
         <v>0.000925503</v>
       </c>
-      <c r="L151" s="0" t="n">
+      <c r="L151" s="2" t="n">
         <v>0.00263552993820225</v>
       </c>
-      <c r="M151" s="0" t="s">
+      <c r="M151" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N151" s="0" t="n">
+      <c r="N151" s="2" t="n">
         <v>1.002</v>
       </c>
-      <c r="O151" s="0" t="n">
+      <c r="O151" s="2" t="n">
         <v>1.07542735691445</v>
       </c>
     </row>
